--- a/ق.الجنوب.xlsx
+++ b/ق.الجنوب.xlsx
@@ -1206,6 +1206,742 @@
     </font>
     <font>
       <sz val="20"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <b/>
+    </font>
+    <font>
+      <sz val="18"/>
       <b/>
     </font>
     <font>
@@ -5861,6 +6597,190 @@
     <fill/>
     <fill/>
     <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
+    <fill/>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="D9D9D9"/>
@@ -12405,6 +13325,1294 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -12426,7 +14634,7 @@
     <xf fontId="5" fillId="6" borderId="5" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="6" fillId="7" borderId="6" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="6" fillId="7" borderId="6" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="7" fillId="8" borderId="7" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -12444,7 +14652,7 @@
     <xf fontId="11" fillId="12" borderId="11" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="12" fillId="13" borderId="12" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="12" fillId="13" borderId="12" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="13" fillId="14" borderId="13" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -12462,7 +14670,7 @@
     <xf fontId="17" fillId="18" borderId="17" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="18" fillId="19" borderId="18" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="18" fillId="19" borderId="18" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="19" fillId="20" borderId="19" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -12480,7 +14688,7 @@
     <xf fontId="23" fillId="24" borderId="23" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="24" fillId="25" borderId="24" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="24" fillId="25" borderId="24" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="25" fillId="26" borderId="25" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -12498,7 +14706,7 @@
     <xf fontId="29" fillId="30" borderId="29" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="30" fillId="31" borderId="30" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="30" fillId="31" borderId="30" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="31" fillId="32" borderId="31" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -12516,7 +14724,7 @@
     <xf fontId="35" fillId="36" borderId="35" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="36" fillId="37" borderId="36" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="36" fillId="37" borderId="36" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="37" fillId="38" borderId="37" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -12534,7 +14742,7 @@
     <xf fontId="41" fillId="42" borderId="41" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="42" fillId="43" borderId="42" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="42" fillId="43" borderId="42" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="43" fillId="44" borderId="43" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -12552,7 +14760,7 @@
     <xf fontId="47" fillId="48" borderId="47" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="48" fillId="49" borderId="48" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="48" fillId="49" borderId="48" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="49" fillId="50" borderId="49" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -12570,7 +14778,7 @@
     <xf fontId="53" fillId="54" borderId="53" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="54" fillId="55" borderId="54" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="54" fillId="55" borderId="54" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="55" fillId="56" borderId="55" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -12588,7 +14796,7 @@
     <xf fontId="59" fillId="60" borderId="59" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="60" fillId="61" borderId="60" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="60" fillId="61" borderId="60" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="61" fillId="62" borderId="61" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -12606,7 +14814,7 @@
     <xf fontId="65" fillId="66" borderId="65" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="66" fillId="67" borderId="66" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="66" fillId="67" borderId="66" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="67" fillId="68" borderId="67" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -12624,7 +14832,7 @@
     <xf fontId="71" fillId="72" borderId="71" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="72" fillId="73" borderId="72" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="72" fillId="73" borderId="72" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="73" fillId="74" borderId="73" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -12642,7 +14850,7 @@
     <xf fontId="77" fillId="78" borderId="77" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="78" fillId="79" borderId="78" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="78" fillId="79" borderId="78" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="79" fillId="80" borderId="79" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -12660,7 +14868,7 @@
     <xf fontId="83" fillId="84" borderId="83" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="84" fillId="85" borderId="84" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="84" fillId="85" borderId="84" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="85" fillId="86" borderId="85" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -12678,7 +14886,7 @@
     <xf fontId="89" fillId="90" borderId="89" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="90" fillId="91" borderId="90" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="90" fillId="91" borderId="90" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="91" fillId="92" borderId="91" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -12696,7 +14904,7 @@
     <xf fontId="95" fillId="96" borderId="95" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="96" fillId="97" borderId="96" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="96" fillId="97" borderId="96" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="97" fillId="98" borderId="97" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -12714,7 +14922,7 @@
     <xf fontId="101" fillId="102" borderId="101" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="102" fillId="103" borderId="102" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="102" fillId="103" borderId="102" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="103" fillId="104" borderId="103" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -12732,7 +14940,7 @@
     <xf fontId="107" fillId="108" borderId="107" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="108" fillId="109" borderId="108" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="108" fillId="109" borderId="108" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="109" fillId="110" borderId="109" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -12750,7 +14958,7 @@
     <xf fontId="113" fillId="114" borderId="113" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="114" fillId="115" borderId="114" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="114" fillId="115" borderId="114" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="115" fillId="116" borderId="115" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -12768,7 +14976,7 @@
     <xf fontId="119" fillId="120" borderId="119" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="120" fillId="121" borderId="120" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="120" fillId="121" borderId="120" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="121" fillId="122" borderId="121" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -12786,7 +14994,7 @@
     <xf fontId="125" fillId="126" borderId="125" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="126" fillId="127" borderId="126" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="126" fillId="127" borderId="126" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="127" fillId="128" borderId="127" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -12804,7 +15012,7 @@
     <xf fontId="131" fillId="132" borderId="131" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="132" fillId="133" borderId="132" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="132" fillId="133" borderId="132" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="133" fillId="134" borderId="133" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -12822,7 +15030,7 @@
     <xf fontId="137" fillId="138" borderId="137" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="138" fillId="139" borderId="138" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="138" fillId="139" borderId="138" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="139" fillId="140" borderId="139" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -12840,7 +15048,7 @@
     <xf fontId="143" fillId="144" borderId="143" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="144" fillId="145" borderId="144" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="144" fillId="145" borderId="144" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="145" fillId="146" borderId="145" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -12858,7 +15066,7 @@
     <xf fontId="149" fillId="150" borderId="149" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="150" fillId="151" borderId="150" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="150" fillId="151" borderId="150" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="151" fillId="152" borderId="151" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -12876,7 +15084,7 @@
     <xf fontId="155" fillId="156" borderId="155" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="156" fillId="157" borderId="156" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="156" fillId="157" borderId="156" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="157" fillId="158" borderId="157" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -12894,7 +15102,7 @@
     <xf fontId="161" fillId="162" borderId="161" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="162" fillId="163" borderId="162" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="162" fillId="163" borderId="162" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="163" fillId="164" borderId="163" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -12912,7 +15120,7 @@
     <xf fontId="167" fillId="168" borderId="167" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="168" fillId="169" borderId="168" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="168" fillId="169" borderId="168" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="169" fillId="170" borderId="169" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -12930,7 +15138,7 @@
     <xf fontId="173" fillId="174" borderId="173" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="174" fillId="175" borderId="174" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="174" fillId="175" borderId="174" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="175" fillId="176" borderId="175" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -12948,7 +15156,7 @@
     <xf fontId="179" fillId="180" borderId="179" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="180" fillId="181" borderId="180" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="180" fillId="181" borderId="180" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="181" fillId="182" borderId="181" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -12966,7 +15174,7 @@
     <xf fontId="185" fillId="186" borderId="185" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="186" fillId="187" borderId="186" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="186" fillId="187" borderId="186" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="187" fillId="188" borderId="187" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -12984,7 +15192,7 @@
     <xf fontId="191" fillId="192" borderId="191" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="192" fillId="193" borderId="192" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="192" fillId="193" borderId="192" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="193" fillId="194" borderId="193" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -13002,7 +15210,7 @@
     <xf fontId="197" fillId="198" borderId="197" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="198" fillId="199" borderId="198" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="198" fillId="199" borderId="198" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="199" fillId="200" borderId="199" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -13020,7 +15228,7 @@
     <xf fontId="203" fillId="204" borderId="203" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="204" fillId="205" borderId="204" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="204" fillId="205" borderId="204" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="205" fillId="206" borderId="205" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -13038,7 +15246,7 @@
     <xf fontId="209" fillId="210" borderId="209" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="210" fillId="211" borderId="210" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="210" fillId="211" borderId="210" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="211" fillId="212" borderId="211" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -13056,7 +15264,7 @@
     <xf fontId="215" fillId="216" borderId="215" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="216" fillId="217" borderId="216" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="216" fillId="217" borderId="216" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="217" fillId="218" borderId="217" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -13074,7 +15282,7 @@
     <xf fontId="221" fillId="222" borderId="221" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="222" fillId="223" borderId="222" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="222" fillId="223" borderId="222" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="223" fillId="224" borderId="223" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -13092,7 +15300,7 @@
     <xf fontId="227" fillId="228" borderId="227" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="228" fillId="229" borderId="228" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="228" fillId="229" borderId="228" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="229" fillId="230" borderId="229" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -13110,7 +15318,7 @@
     <xf fontId="233" fillId="234" borderId="233" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="234" fillId="235" borderId="234" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="234" fillId="235" borderId="234" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="235" fillId="236" borderId="235" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -13128,7 +15336,7 @@
     <xf fontId="239" fillId="240" borderId="239" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="240" fillId="241" borderId="240" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="240" fillId="241" borderId="240" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="241" fillId="242" borderId="241" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -13146,7 +15354,7 @@
     <xf fontId="245" fillId="246" borderId="245" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="246" fillId="247" borderId="246" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="246" fillId="247" borderId="246" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="247" fillId="248" borderId="247" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -13164,7 +15372,7 @@
     <xf fontId="251" fillId="252" borderId="251" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="252" fillId="253" borderId="252" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="252" fillId="253" borderId="252" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="253" fillId="254" borderId="253" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -13182,7 +15390,7 @@
     <xf fontId="257" fillId="258" borderId="257" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="258" fillId="259" borderId="258" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="258" fillId="259" borderId="258" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="259" fillId="260" borderId="259" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -13200,7 +15408,7 @@
     <xf fontId="263" fillId="264" borderId="263" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="264" fillId="265" borderId="264" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="264" fillId="265" borderId="264" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="265" fillId="266" borderId="265" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -13218,7 +15426,7 @@
     <xf fontId="269" fillId="270" borderId="269" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="270" fillId="271" borderId="270" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="270" fillId="271" borderId="270" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="271" fillId="272" borderId="271" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -13236,7 +15444,7 @@
     <xf fontId="275" fillId="276" borderId="275" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="276" fillId="277" borderId="276" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="276" fillId="277" borderId="276" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="277" fillId="278" borderId="277" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -13254,7 +15462,7 @@
     <xf fontId="281" fillId="282" borderId="281" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="282" fillId="283" borderId="282" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="282" fillId="283" borderId="282" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="283" fillId="284" borderId="283" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -13272,7 +15480,7 @@
     <xf fontId="287" fillId="288" borderId="287" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="288" fillId="289" borderId="288" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="288" fillId="289" borderId="288" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="289" fillId="290" borderId="289" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -13290,7 +15498,7 @@
     <xf fontId="293" fillId="294" borderId="293" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="294" fillId="295" borderId="294" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="294" fillId="295" borderId="294" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="295" fillId="296" borderId="295" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -13308,7 +15516,7 @@
     <xf fontId="299" fillId="300" borderId="299" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="300" fillId="301" borderId="300" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="300" fillId="301" borderId="300" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="301" fillId="302" borderId="301" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -13326,7 +15534,7 @@
     <xf fontId="305" fillId="306" borderId="305" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="306" fillId="307" borderId="306" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="306" fillId="307" borderId="306" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="307" fillId="308" borderId="307" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -13344,7 +15552,7 @@
     <xf fontId="311" fillId="312" borderId="311" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="312" fillId="313" borderId="312" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="312" fillId="313" borderId="312" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="313" fillId="314" borderId="313" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -13362,7 +15570,7 @@
     <xf fontId="317" fillId="318" borderId="317" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="318" fillId="319" borderId="318" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="318" fillId="319" borderId="318" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="319" fillId="320" borderId="319" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -13380,7 +15588,7 @@
     <xf fontId="323" fillId="324" borderId="323" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="324" fillId="325" borderId="324" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="324" fillId="325" borderId="324" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="325" fillId="326" borderId="325" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -13398,7 +15606,7 @@
     <xf fontId="329" fillId="330" borderId="329" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="330" fillId="331" borderId="330" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="330" fillId="331" borderId="330" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="331" fillId="332" borderId="331" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -13416,7 +15624,7 @@
     <xf fontId="335" fillId="336" borderId="335" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="336" fillId="337" borderId="336" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="336" fillId="337" borderId="336" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="337" fillId="338" borderId="337" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -13434,7 +15642,7 @@
     <xf fontId="341" fillId="342" borderId="341" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="342" fillId="343" borderId="342" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="342" fillId="343" borderId="342" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="343" fillId="344" borderId="343" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -13452,7 +15660,7 @@
     <xf fontId="347" fillId="348" borderId="347" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="348" fillId="349" borderId="348" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="348" fillId="349" borderId="348" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="349" fillId="350" borderId="349" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -13470,7 +15678,7 @@
     <xf fontId="353" fillId="354" borderId="353" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="354" fillId="355" borderId="354" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="354" fillId="355" borderId="354" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="355" fillId="356" borderId="355" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -13488,7 +15696,7 @@
     <xf fontId="359" fillId="360" borderId="359" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="360" fillId="361" borderId="360" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="360" fillId="361" borderId="360" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="361" fillId="362" borderId="361" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -13506,7 +15714,7 @@
     <xf fontId="365" fillId="366" borderId="365" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="366" fillId="367" borderId="366" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="366" fillId="367" borderId="366" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="367" fillId="368" borderId="367" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -13524,7 +15732,7 @@
     <xf fontId="371" fillId="372" borderId="371" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="372" fillId="373" borderId="372" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="372" fillId="373" borderId="372" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="373" fillId="374" borderId="373" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -13542,7 +15750,7 @@
     <xf fontId="377" fillId="378" borderId="377" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="378" fillId="379" borderId="378" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="378" fillId="379" borderId="378" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="379" fillId="380" borderId="379" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -13560,7 +15768,7 @@
     <xf fontId="383" fillId="384" borderId="383" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="384" fillId="385" borderId="384" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="384" fillId="385" borderId="384" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="385" fillId="386" borderId="385" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -13578,7 +15786,7 @@
     <xf fontId="389" fillId="390" borderId="389" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="390" fillId="391" borderId="390" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="390" fillId="391" borderId="390" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="391" fillId="392" borderId="391" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -13596,7 +15804,7 @@
     <xf fontId="395" fillId="396" borderId="395" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="396" fillId="397" borderId="396" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="396" fillId="397" borderId="396" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="397" fillId="398" borderId="397" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -13614,7 +15822,7 @@
     <xf fontId="401" fillId="402" borderId="401" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="402" fillId="403" borderId="402" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="402" fillId="403" borderId="402" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="403" fillId="404" borderId="403" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -13632,7 +15840,7 @@
     <xf fontId="407" fillId="408" borderId="407" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="408" fillId="409" borderId="408" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="408" fillId="409" borderId="408" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="409" fillId="410" borderId="409" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -13650,7 +15858,7 @@
     <xf fontId="413" fillId="414" borderId="413" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="414" fillId="415" borderId="414" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="414" fillId="415" borderId="414" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="415" fillId="416" borderId="415" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -13668,7 +15876,7 @@
     <xf fontId="419" fillId="420" borderId="419" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="420" fillId="421" borderId="420" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="420" fillId="421" borderId="420" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="421" fillId="422" borderId="421" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -13686,7 +15894,7 @@
     <xf fontId="425" fillId="426" borderId="425" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="426" fillId="427" borderId="426" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="426" fillId="427" borderId="426" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="427" fillId="428" borderId="427" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -13704,7 +15912,7 @@
     <xf fontId="431" fillId="432" borderId="431" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="432" fillId="433" borderId="432" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="432" fillId="433" borderId="432" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="433" fillId="434" borderId="433" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -13722,7 +15930,7 @@
     <xf fontId="437" fillId="438" borderId="437" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="438" fillId="439" borderId="438" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="438" fillId="439" borderId="438" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="439" fillId="440" borderId="439" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -13740,7 +15948,7 @@
     <xf fontId="443" fillId="444" borderId="443" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="444" fillId="445" borderId="444" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="444" fillId="445" borderId="444" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="445" fillId="446" borderId="445" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -13758,7 +15966,7 @@
     <xf fontId="449" fillId="450" borderId="449" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="450" fillId="451" borderId="450" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="450" fillId="451" borderId="450" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="451" fillId="452" borderId="451" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -13776,7 +15984,7 @@
     <xf fontId="455" fillId="456" borderId="455" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="456" fillId="457" borderId="456" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="456" fillId="457" borderId="456" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="457" fillId="458" borderId="457" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -13794,7 +16002,7 @@
     <xf fontId="461" fillId="462" borderId="461" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="462" fillId="463" borderId="462" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="462" fillId="463" borderId="462" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="463" fillId="464" borderId="463" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -13812,7 +16020,7 @@
     <xf fontId="467" fillId="468" borderId="467" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="468" fillId="469" borderId="468" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="468" fillId="469" borderId="468" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="469" fillId="470" borderId="469" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -13830,7 +16038,7 @@
     <xf fontId="473" fillId="474" borderId="473" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="474" fillId="475" borderId="474" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="474" fillId="475" borderId="474" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="475" fillId="476" borderId="475" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -13848,7 +16056,7 @@
     <xf fontId="479" fillId="480" borderId="479" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="480" fillId="481" borderId="480" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="480" fillId="481" borderId="480" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="481" fillId="482" borderId="481" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -13866,7 +16074,7 @@
     <xf fontId="485" fillId="486" borderId="485" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="486" fillId="487" borderId="486" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="486" fillId="487" borderId="486" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="487" fillId="488" borderId="487" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -13884,7 +16092,7 @@
     <xf fontId="491" fillId="492" borderId="491" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="492" fillId="493" borderId="492" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="492" fillId="493" borderId="492" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="493" fillId="494" borderId="493" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -13902,7 +16110,7 @@
     <xf fontId="497" fillId="498" borderId="497" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="498" fillId="499" borderId="498" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="498" fillId="499" borderId="498" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="499" fillId="500" borderId="499" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -13920,7 +16128,7 @@
     <xf fontId="503" fillId="504" borderId="503" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="504" fillId="505" borderId="504" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="504" fillId="505" borderId="504" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="505" fillId="506" borderId="505" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -13938,7 +16146,7 @@
     <xf fontId="509" fillId="510" borderId="509" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="510" fillId="511" borderId="510" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="510" fillId="511" borderId="510" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="511" fillId="512" borderId="511" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -13956,7 +16164,7 @@
     <xf fontId="515" fillId="516" borderId="515" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="516" fillId="517" borderId="516" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="516" fillId="517" borderId="516" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="517" fillId="518" borderId="517" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -13974,7 +16182,7 @@
     <xf fontId="521" fillId="522" borderId="521" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="522" fillId="523" borderId="522" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="522" fillId="523" borderId="522" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="523" fillId="524" borderId="523" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -13992,7 +16200,7 @@
     <xf fontId="527" fillId="528" borderId="527" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="528" fillId="529" borderId="528" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="528" fillId="529" borderId="528" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="529" fillId="530" borderId="529" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -14010,7 +16218,7 @@
     <xf fontId="533" fillId="534" borderId="533" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="534" fillId="535" borderId="534" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="534" fillId="535" borderId="534" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="535" fillId="536" borderId="535" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -14028,7 +16236,7 @@
     <xf fontId="539" fillId="540" borderId="539" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="540" fillId="541" borderId="540" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="540" fillId="541" borderId="540" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="541" fillId="542" borderId="541" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -14046,7 +16254,7 @@
     <xf fontId="545" fillId="546" borderId="545" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="546" fillId="547" borderId="546" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="546" fillId="547" borderId="546" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="547" fillId="548" borderId="547" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -14064,7 +16272,7 @@
     <xf fontId="551" fillId="552" borderId="551" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="552" fillId="553" borderId="552" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="552" fillId="553" borderId="552" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="553" fillId="554" borderId="553" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -14082,7 +16290,7 @@
     <xf fontId="557" fillId="558" borderId="557" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="558" fillId="559" borderId="558" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="558" fillId="559" borderId="558" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="559" fillId="560" borderId="559" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -14100,7 +16308,7 @@
     <xf fontId="563" fillId="564" borderId="563" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="564" fillId="565" borderId="564" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="564" fillId="565" borderId="564" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="565" fillId="566" borderId="565" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -14118,7 +16326,7 @@
     <xf fontId="569" fillId="570" borderId="569" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="570" fillId="571" borderId="570" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="570" fillId="571" borderId="570" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="571" fillId="572" borderId="571" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -14136,7 +16344,7 @@
     <xf fontId="575" fillId="576" borderId="575" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="576" fillId="577" borderId="576" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="576" fillId="577" borderId="576" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="577" fillId="578" borderId="577" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -14154,7 +16362,7 @@
     <xf fontId="581" fillId="582" borderId="581" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="582" fillId="583" borderId="582" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="582" fillId="583" borderId="582" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="583" fillId="584" borderId="583" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -14172,7 +16380,7 @@
     <xf fontId="587" fillId="588" borderId="587" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="588" fillId="589" borderId="588" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="588" fillId="589" borderId="588" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="589" fillId="590" borderId="589" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -14190,7 +16398,7 @@
     <xf fontId="593" fillId="594" borderId="593" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="594" fillId="595" borderId="594" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="594" fillId="595" borderId="594" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="595" fillId="596" borderId="595" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -14208,7 +16416,7 @@
     <xf fontId="599" fillId="600" borderId="599" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="600" fillId="601" borderId="600" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="600" fillId="601" borderId="600" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="601" fillId="602" borderId="601" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -14226,7 +16434,7 @@
     <xf fontId="605" fillId="606" borderId="605" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="606" fillId="607" borderId="606" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="606" fillId="607" borderId="606" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="607" fillId="608" borderId="607" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -14244,7 +16452,7 @@
     <xf fontId="611" fillId="612" borderId="611" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="612" fillId="613" borderId="612" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="612" fillId="613" borderId="612" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="613" fillId="614" borderId="613" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -14262,7 +16470,7 @@
     <xf fontId="617" fillId="618" borderId="617" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="618" fillId="619" borderId="618" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="618" fillId="619" borderId="618" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="619" fillId="620" borderId="619" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -14280,7 +16488,7 @@
     <xf fontId="623" fillId="624" borderId="623" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="624" fillId="625" borderId="624" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="624" fillId="625" borderId="624" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="625" fillId="626" borderId="625" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -14298,7 +16506,7 @@
     <xf fontId="629" fillId="630" borderId="629" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="630" fillId="631" borderId="630" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="630" fillId="631" borderId="630" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="631" fillId="632" borderId="631" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -14316,7 +16524,7 @@
     <xf fontId="635" fillId="636" borderId="635" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="636" fillId="637" borderId="636" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="636" fillId="637" borderId="636" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="637" fillId="638" borderId="637" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -14334,7 +16542,7 @@
     <xf fontId="641" fillId="642" borderId="641" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="642" fillId="643" borderId="642" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="642" fillId="643" borderId="642" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="643" fillId="644" borderId="643" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -14352,7 +16560,7 @@
     <xf fontId="647" fillId="648" borderId="647" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="648" fillId="649" borderId="648" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="648" fillId="649" borderId="648" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="649" fillId="650" borderId="649" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -14370,7 +16578,7 @@
     <xf fontId="653" fillId="654" borderId="653" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="654" fillId="655" borderId="654" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="654" fillId="655" borderId="654" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="655" fillId="656" borderId="655" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -14388,7 +16596,7 @@
     <xf fontId="659" fillId="660" borderId="659" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="660" fillId="661" borderId="660" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="660" fillId="661" borderId="660" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="661" fillId="662" borderId="661" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -14406,7 +16614,7 @@
     <xf fontId="665" fillId="666" borderId="665" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="666" fillId="667" borderId="666" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="666" fillId="667" borderId="666" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="667" fillId="668" borderId="667" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -14424,7 +16632,7 @@
     <xf fontId="671" fillId="672" borderId="671" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="672" fillId="673" borderId="672" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="672" fillId="673" borderId="672" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="673" fillId="674" borderId="673" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -14442,7 +16650,7 @@
     <xf fontId="677" fillId="678" borderId="677" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="678" fillId="679" borderId="678" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="678" fillId="679" borderId="678" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="679" fillId="680" borderId="679" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -14460,7 +16668,7 @@
     <xf fontId="683" fillId="684" borderId="683" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="684" fillId="685" borderId="684" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="684" fillId="685" borderId="684" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="685" fillId="686" borderId="685" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -14478,7 +16686,7 @@
     <xf fontId="689" fillId="690" borderId="689" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="690" fillId="691" borderId="690" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="690" fillId="691" borderId="690" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="691" fillId="692" borderId="691" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -14496,7 +16704,7 @@
     <xf fontId="695" fillId="696" borderId="695" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="696" fillId="697" borderId="696" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="696" fillId="697" borderId="696" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="697" fillId="698" borderId="697" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -14514,7 +16722,7 @@
     <xf fontId="701" fillId="702" borderId="701" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="702" fillId="703" borderId="702" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="702" fillId="703" borderId="702" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="703" fillId="704" borderId="703" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -14532,7 +16740,7 @@
     <xf fontId="707" fillId="708" borderId="707" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="708" fillId="709" borderId="708" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="708" fillId="709" borderId="708" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="709" fillId="710" borderId="709" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -14550,7 +16758,7 @@
     <xf fontId="713" fillId="714" borderId="713" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="714" fillId="715" borderId="714" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="714" fillId="715" borderId="714" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="715" fillId="716" borderId="715" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -14568,7 +16776,7 @@
     <xf fontId="719" fillId="720" borderId="719" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="720" fillId="721" borderId="720" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="720" fillId="721" borderId="720" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="721" fillId="722" borderId="721" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -14586,7 +16794,7 @@
     <xf fontId="725" fillId="726" borderId="725" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="726" fillId="727" borderId="726" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="726" fillId="727" borderId="726" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="727" fillId="728" borderId="727" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -14604,7 +16812,7 @@
     <xf fontId="731" fillId="732" borderId="731" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="732" fillId="733" borderId="732" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="732" fillId="733" borderId="732" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="733" fillId="734" borderId="733" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -14622,7 +16830,7 @@
     <xf fontId="737" fillId="738" borderId="737" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="738" fillId="739" borderId="738" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="738" fillId="739" borderId="738" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="739" fillId="740" borderId="739" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -14640,7 +16848,7 @@
     <xf fontId="743" fillId="744" borderId="743" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="744" fillId="745" borderId="744" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="744" fillId="745" borderId="744" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="745" fillId="746" borderId="745" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -14658,7 +16866,7 @@
     <xf fontId="749" fillId="750" borderId="749" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="750" fillId="751" borderId="750" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="750" fillId="751" borderId="750" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="751" fillId="752" borderId="751" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -14676,7 +16884,7 @@
     <xf fontId="755" fillId="756" borderId="755" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="756" fillId="757" borderId="756" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="756" fillId="757" borderId="756" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="757" fillId="758" borderId="757" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -14694,7 +16902,7 @@
     <xf fontId="761" fillId="762" borderId="761" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="762" fillId="763" borderId="762" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="762" fillId="763" borderId="762" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="763" fillId="764" borderId="763" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -14712,7 +16920,7 @@
     <xf fontId="767" fillId="768" borderId="767" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="768" fillId="769" borderId="768" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="768" fillId="769" borderId="768" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="769" fillId="770" borderId="769" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -14730,7 +16938,7 @@
     <xf fontId="773" fillId="774" borderId="773" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="774" fillId="775" borderId="774" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="774" fillId="775" borderId="774" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="775" fillId="776" borderId="775" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -14748,7 +16956,7 @@
     <xf fontId="779" fillId="780" borderId="779" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="780" fillId="781" borderId="780" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="780" fillId="781" borderId="780" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="781" fillId="782" borderId="781" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -14766,7 +16974,7 @@
     <xf fontId="785" fillId="786" borderId="785" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="786" fillId="787" borderId="786" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="786" fillId="787" borderId="786" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="787" fillId="788" borderId="787" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -14784,7 +16992,7 @@
     <xf fontId="791" fillId="792" borderId="791" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="792" fillId="793" borderId="792" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="792" fillId="793" borderId="792" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="793" fillId="794" borderId="793" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -14802,7 +17010,7 @@
     <xf fontId="797" fillId="798" borderId="797" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="798" fillId="799" borderId="798" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="798" fillId="799" borderId="798" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="799" fillId="800" borderId="799" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -14820,7 +17028,7 @@
     <xf fontId="803" fillId="804" borderId="803" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="804" fillId="805" borderId="804" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="804" fillId="805" borderId="804" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="805" fillId="806" borderId="805" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -14838,7 +17046,7 @@
     <xf fontId="809" fillId="810" borderId="809" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="810" fillId="811" borderId="810" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="810" fillId="811" borderId="810" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="811" fillId="812" borderId="811" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -14856,7 +17064,7 @@
     <xf fontId="815" fillId="816" borderId="815" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="816" fillId="817" borderId="816" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="816" fillId="817" borderId="816" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="817" fillId="818" borderId="817" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -14874,7 +17082,7 @@
     <xf fontId="821" fillId="822" borderId="821" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="822" fillId="823" borderId="822" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="822" fillId="823" borderId="822" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="823" fillId="824" borderId="823" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -14892,7 +17100,7 @@
     <xf fontId="827" fillId="828" borderId="827" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="828" fillId="829" borderId="828" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="828" fillId="829" borderId="828" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="829" fillId="830" borderId="829" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -14910,7 +17118,7 @@
     <xf fontId="833" fillId="834" borderId="833" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="834" fillId="835" borderId="834" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="834" fillId="835" borderId="834" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="835" fillId="836" borderId="835" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -14928,7 +17136,7 @@
     <xf fontId="839" fillId="840" borderId="839" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="840" fillId="841" borderId="840" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="840" fillId="841" borderId="840" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="841" fillId="842" borderId="841" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -14946,7 +17154,7 @@
     <xf fontId="845" fillId="846" borderId="845" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="846" fillId="847" borderId="846" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="846" fillId="847" borderId="846" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="847" fillId="848" borderId="847" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -14964,7 +17172,7 @@
     <xf fontId="851" fillId="852" borderId="851" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="852" fillId="853" borderId="852" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="852" fillId="853" borderId="852" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="853" fillId="854" borderId="853" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -14982,7 +17190,7 @@
     <xf fontId="857" fillId="858" borderId="857" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="858" fillId="859" borderId="858" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="858" fillId="859" borderId="858" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="859" fillId="860" borderId="859" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -15000,7 +17208,7 @@
     <xf fontId="863" fillId="864" borderId="863" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="864" fillId="865" borderId="864" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="864" fillId="865" borderId="864" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="865" fillId="866" borderId="865" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -15018,7 +17226,7 @@
     <xf fontId="869" fillId="870" borderId="869" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="870" fillId="871" borderId="870" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="870" fillId="871" borderId="870" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="871" fillId="872" borderId="871" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -15036,7 +17244,7 @@
     <xf fontId="875" fillId="876" borderId="875" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="876" fillId="877" borderId="876" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="876" fillId="877" borderId="876" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="877" fillId="878" borderId="877" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -15054,7 +17262,7 @@
     <xf fontId="881" fillId="882" borderId="881" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="882" fillId="883" borderId="882" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="882" fillId="883" borderId="882" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="883" fillId="884" borderId="883" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -15072,7 +17280,7 @@
     <xf fontId="887" fillId="888" borderId="887" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="888" fillId="889" borderId="888" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="888" fillId="889" borderId="888" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="889" fillId="890" borderId="889" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -15090,7 +17298,7 @@
     <xf fontId="893" fillId="894" borderId="893" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="894" fillId="895" borderId="894" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="894" fillId="895" borderId="894" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="895" fillId="896" borderId="895" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -15108,7 +17316,7 @@
     <xf fontId="899" fillId="900" borderId="899" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="900" fillId="901" borderId="900" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="900" fillId="901" borderId="900" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="901" fillId="902" borderId="901" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -15126,7 +17334,7 @@
     <xf fontId="905" fillId="906" borderId="905" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="906" fillId="907" borderId="906" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="906" fillId="907" borderId="906" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="907" fillId="908" borderId="907" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -15144,7 +17352,7 @@
     <xf fontId="911" fillId="912" borderId="911" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="912" fillId="913" borderId="912" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="912" fillId="913" borderId="912" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="913" fillId="914" borderId="913" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -15162,7 +17370,7 @@
     <xf fontId="917" fillId="918" borderId="917" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="918" fillId="919" borderId="918" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="918" fillId="919" borderId="918" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="919" fillId="920" borderId="919" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
@@ -15180,25 +17388,577 @@
     <xf fontId="923" fillId="924" borderId="923" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="924" fillId="925" borderId="924" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+    <xf fontId="924" fillId="925" borderId="924" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="925" fillId="926" borderId="925" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf fontId="926" fillId="927" borderId="926" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="927" fillId="928" borderId="927" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="928" fillId="929" borderId="928" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf fontId="929" fillId="930" borderId="929" applyFont="1" applyFill="1" applyBorder="1">
+    <xf fontId="926" fillId="927" borderId="926" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="927" fillId="928" borderId="927" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="928" fillId="929" borderId="928" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="929" fillId="930" borderId="929" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf fontId="930" fillId="931" borderId="930" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="931" fillId="932" borderId="931" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="932" fillId="933" borderId="932" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="933" fillId="934" borderId="933" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="934" fillId="935" borderId="934" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="935" fillId="936" borderId="935" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="936" fillId="937" borderId="936" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="937" fillId="938" borderId="937" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="938" fillId="939" borderId="938" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="939" fillId="940" borderId="939" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="940" fillId="941" borderId="940" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="941" fillId="942" borderId="941" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="942" fillId="943" borderId="942" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="943" fillId="944" borderId="943" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="944" fillId="945" borderId="944" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="945" fillId="946" borderId="945" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="946" fillId="947" borderId="946" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="947" fillId="948" borderId="947" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="948" fillId="949" borderId="948" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="949" fillId="950" borderId="949" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="950" fillId="951" borderId="950" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="951" fillId="952" borderId="951" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="952" fillId="953" borderId="952" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="953" fillId="954" borderId="953" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="954" fillId="955" borderId="954" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="955" fillId="956" borderId="955" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="956" fillId="957" borderId="956" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="957" fillId="958" borderId="957" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="958" fillId="959" borderId="958" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="959" fillId="960" borderId="959" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="960" fillId="961" borderId="960" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="961" fillId="962" borderId="961" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="962" fillId="963" borderId="962" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="963" fillId="964" borderId="963" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="964" fillId="965" borderId="964" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="965" fillId="966" borderId="965" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="966" fillId="967" borderId="966" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="967" fillId="968" borderId="967" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="968" fillId="969" borderId="968" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="969" fillId="970" borderId="969" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="970" fillId="971" borderId="970" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="971" fillId="972" borderId="971" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="972" fillId="973" borderId="972" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="973" fillId="974" borderId="973" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="974" fillId="975" borderId="974" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="975" fillId="976" borderId="975" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="976" fillId="977" borderId="976" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="977" fillId="978" borderId="977" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="978" fillId="979" borderId="978" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="979" fillId="980" borderId="979" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="980" fillId="981" borderId="980" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="981" fillId="982" borderId="981" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="982" fillId="983" borderId="982" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="983" fillId="984" borderId="983" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="984" fillId="985" borderId="984" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="985" fillId="986" borderId="985" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="986" fillId="987" borderId="986" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="987" fillId="988" borderId="987" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="988" fillId="989" borderId="988" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="989" fillId="990" borderId="989" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="990" fillId="991" borderId="990" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="991" fillId="992" borderId="991" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="992" fillId="993" borderId="992" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="993" fillId="994" borderId="993" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="994" fillId="995" borderId="994" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="995" fillId="996" borderId="995" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="996" fillId="997" borderId="996" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="997" fillId="998" borderId="997" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="998" fillId="999" borderId="998" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="999" fillId="1000" borderId="999" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1000" fillId="1001" borderId="1000" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1001" fillId="1002" borderId="1001" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1002" fillId="1003" borderId="1002" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1003" fillId="1004" borderId="1003" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1004" fillId="1005" borderId="1004" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1005" fillId="1006" borderId="1005" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1006" fillId="1007" borderId="1006" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1007" fillId="1008" borderId="1007" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1008" fillId="1009" borderId="1008" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1009" fillId="1010" borderId="1009" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1010" fillId="1011" borderId="1010" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1011" fillId="1012" borderId="1011" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1012" fillId="1013" borderId="1012" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1013" fillId="1014" borderId="1013" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1014" fillId="1015" borderId="1014" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1015" fillId="1016" borderId="1015" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1016" fillId="1017" borderId="1016" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1017" fillId="1018" borderId="1017" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1018" fillId="1019" borderId="1018" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1019" fillId="1020" borderId="1019" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1020" fillId="1021" borderId="1020" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1021" fillId="1022" borderId="1021" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1022" fillId="1023" borderId="1022" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1023" fillId="1024" borderId="1023" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1024" fillId="1025" borderId="1024" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1025" fillId="1026" borderId="1025" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1026" fillId="1027" borderId="1026" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1027" fillId="1028" borderId="1027" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1028" fillId="1029" borderId="1028" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1029" fillId="1030" borderId="1029" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1030" fillId="1031" borderId="1030" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1031" fillId="1032" borderId="1031" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1032" fillId="1033" borderId="1032" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1033" fillId="1034" borderId="1033" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1034" fillId="1035" borderId="1034" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1035" fillId="1036" borderId="1035" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1036" fillId="1037" borderId="1036" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1037" fillId="1038" borderId="1037" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1038" fillId="1039" borderId="1038" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1039" fillId="1040" borderId="1039" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1040" fillId="1041" borderId="1040" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1041" fillId="1042" borderId="1041" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1042" fillId="1043" borderId="1042" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1043" fillId="1044" borderId="1043" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1044" fillId="1045" borderId="1044" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1045" fillId="1046" borderId="1045" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1046" fillId="1047" borderId="1046" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1047" fillId="1048" borderId="1047" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1048" fillId="1049" borderId="1048" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1049" fillId="1050" borderId="1049" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1050" fillId="1051" borderId="1050" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1051" fillId="1052" borderId="1051" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1052" fillId="1053" borderId="1052" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1053" fillId="1054" borderId="1053" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1054" fillId="1055" borderId="1054" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1055" fillId="1056" borderId="1055" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1056" fillId="1057" borderId="1056" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1057" fillId="1058" borderId="1057" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1058" fillId="1059" borderId="1058" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1059" fillId="1060" borderId="1059" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1060" fillId="1061" borderId="1060" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1061" fillId="1062" borderId="1061" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1062" fillId="1063" borderId="1062" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1063" fillId="1064" borderId="1063" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1064" fillId="1065" borderId="1064" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1065" fillId="1066" borderId="1065" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1066" fillId="1067" borderId="1066" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1067" fillId="1068" borderId="1067" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1068" fillId="1069" borderId="1068" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1069" fillId="1070" borderId="1069" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1070" fillId="1071" borderId="1070" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1071" fillId="1072" borderId="1071" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1072" fillId="1073" borderId="1072" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1073" fillId="1074" borderId="1073" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1074" fillId="1075" borderId="1074" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1075" fillId="1076" borderId="1075" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1076" fillId="1077" borderId="1076" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1077" fillId="1078" borderId="1077" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1078" fillId="1079" borderId="1078" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1079" fillId="1080" borderId="1079" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1080" fillId="1081" borderId="1080" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1081" fillId="1082" borderId="1081" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1082" fillId="1083" borderId="1082" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1083" fillId="1084" borderId="1083" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1084" fillId="1085" borderId="1084" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1085" fillId="1086" borderId="1085" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1086" fillId="1087" borderId="1086" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1087" fillId="1088" borderId="1087" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1088" fillId="1089" borderId="1088" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1089" fillId="1090" borderId="1089" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1090" fillId="1091" borderId="1090" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1091" fillId="1092" borderId="1091" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1092" fillId="1093" borderId="1092" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1093" fillId="1094" borderId="1093" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1094" fillId="1095" borderId="1094" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1095" fillId="1096" borderId="1095" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1096" fillId="1097" borderId="1096" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1097" fillId="1098" borderId="1097" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1098" fillId="1099" borderId="1098" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1099" fillId="1100" borderId="1099" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1100" fillId="1101" borderId="1100" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1101" fillId="1102" borderId="1101" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1102" fillId="1103" borderId="1102" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1103" fillId="1104" borderId="1103" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1104" fillId="1105" borderId="1104" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1105" fillId="1106" borderId="1105" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1106" fillId="1107" borderId="1106" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1107" fillId="1108" borderId="1107" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1108" fillId="1109" borderId="1108" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1109" fillId="1110" borderId="1109" applyFont="1" applyFill="1" applyBorder="1" numFmtId="2">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1110" fillId="1111" borderId="1110" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1111" fillId="1112" borderId="1111" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1112" fillId="1113" borderId="1112" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1113" fillId="1114" borderId="1113" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf fontId="1114" fillId="1115" borderId="1114" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -15487,3173 +18247,3725 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="30" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="35" customWidth="1"/>
+    <col min="2" max="2" width="35" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="35" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="1">
+      <c r="B1" t="s" s="1">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="C1" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="D1" t="s" s="3">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="4">
+      <c r="E1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="5">
+      <c r="F1" t="s" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="6">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="B2" t="s" s="7">
+      <c r="C2" t="s" s="8">
         <v>6</v>
       </c>
-      <c r="C2" t="s" s="8">
+      <c r="D2" t="s" s="9">
         <v>7</v>
       </c>
-      <c r="D2" t="s" s="9">
+      <c r="E2" t="s" s="10">
         <v>8</v>
       </c>
-      <c r="E2" t="s" s="10">
+      <c r="F2" t="s" s="11">
         <v>9</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="11">
+      <c r="A3" s="12">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s" s="13">
         <v>10</v>
       </c>
-      <c r="B3" t="s" s="12">
+      <c r="C3" t="s" s="14">
         <v>11</v>
       </c>
-      <c r="C3" t="s" s="13">
+      <c r="D3" t="s" s="15">
         <v>7</v>
       </c>
-      <c r="D3" t="s" s="14">
+      <c r="E3" t="s" s="16">
         <v>8</v>
       </c>
-      <c r="E3" t="s" s="15">
+      <c r="F3" t="s" s="17">
         <v>9</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="16">
+      <c r="A4" s="18">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s" s="19">
         <v>12</v>
       </c>
-      <c r="B4" t="s" s="17">
+      <c r="C4" t="s" s="20">
         <v>13</v>
       </c>
-      <c r="C4" t="s" s="18">
+      <c r="D4" t="s" s="21">
         <v>7</v>
       </c>
-      <c r="D4" t="s" s="19">
+      <c r="E4" t="s" s="22">
         <v>8</v>
       </c>
-      <c r="E4" t="s" s="20">
+      <c r="F4" t="s" s="23">
         <v>9</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="21">
+      <c r="A5" s="24">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s" s="25">
         <v>14</v>
       </c>
-      <c r="B5" t="s" s="22">
+      <c r="C5" t="s" s="26">
         <v>15</v>
       </c>
-      <c r="C5" t="s" s="23">
+      <c r="D5" t="s" s="27">
         <v>7</v>
       </c>
-      <c r="D5" t="s" s="24">
+      <c r="E5" t="s" s="28">
         <v>8</v>
       </c>
-      <c r="E5" t="s" s="25">
+      <c r="F5" t="s" s="29">
         <v>9</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="26">
+      <c r="A6" s="30">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s" s="31">
         <v>16</v>
       </c>
-      <c r="B6" t="s" s="27">
+      <c r="C6" t="s" s="32">
         <v>17</v>
       </c>
-      <c r="C6" t="s" s="28">
+      <c r="D6" t="s" s="33">
         <v>7</v>
       </c>
-      <c r="D6" t="s" s="29">
+      <c r="E6" t="s" s="34">
         <v>8</v>
       </c>
-      <c r="E6" t="s" s="30">
+      <c r="F6" t="s" s="35">
         <v>9</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="31">
+      <c r="A7" s="36">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s" s="37">
         <v>18</v>
       </c>
-      <c r="B7" t="s" s="32">
+      <c r="C7" t="s" s="38">
         <v>19</v>
       </c>
-      <c r="C7" t="s" s="33">
+      <c r="D7" t="s" s="39">
         <v>7</v>
       </c>
-      <c r="D7" t="s" s="34">
+      <c r="E7" t="s" s="40">
         <v>8</v>
       </c>
-      <c r="E7" t="s" s="35">
+      <c r="F7" t="s" s="41">
         <v>9</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s" s="36">
+      <c r="A8" s="42">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s" s="43">
         <v>20</v>
       </c>
-      <c r="B8" t="s" s="37">
+      <c r="C8" t="s" s="44">
         <v>21</v>
       </c>
-      <c r="C8" t="s" s="38">
+      <c r="D8" t="s" s="45">
         <v>7</v>
       </c>
-      <c r="D8" t="s" s="39">
+      <c r="E8" t="s" s="46">
         <v>8</v>
       </c>
-      <c r="E8" t="s" s="40">
+      <c r="F8" t="s" s="47">
         <v>9</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="41">
+      <c r="A9" s="48">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s" s="49">
         <v>22</v>
       </c>
-      <c r="B9" t="s" s="42">
+      <c r="C9" t="s" s="50">
         <v>23</v>
       </c>
-      <c r="C9" t="s" s="43">
+      <c r="D9" t="s" s="51">
         <v>7</v>
       </c>
-      <c r="D9" t="s" s="44">
+      <c r="E9" t="s" s="52">
         <v>8</v>
       </c>
-      <c r="E9" t="s" s="45">
+      <c r="F9" t="s" s="53">
         <v>9</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="46">
+      <c r="A10" s="54">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s" s="55">
         <v>24</v>
       </c>
-      <c r="B10" t="s" s="47">
+      <c r="C10" t="s" s="56">
         <v>25</v>
       </c>
-      <c r="C10" t="s" s="48">
+      <c r="D10" t="s" s="57">
         <v>7</v>
       </c>
-      <c r="D10" t="s" s="49">
+      <c r="E10" t="s" s="58">
         <v>8</v>
       </c>
-      <c r="E10" t="s" s="50">
+      <c r="F10" t="s" s="59">
         <v>9</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="51">
+      <c r="A11" s="60">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s" s="61">
         <v>26</v>
       </c>
-      <c r="B11" t="s" s="52">
+      <c r="C11" t="s" s="62">
         <v>27</v>
       </c>
-      <c r="C11" t="s" s="53">
+      <c r="D11" t="s" s="63">
         <v>7</v>
       </c>
-      <c r="D11" t="s" s="54">
+      <c r="E11" t="s" s="64">
         <v>8</v>
       </c>
-      <c r="E11" t="s" s="55">
+      <c r="F11" t="s" s="65">
         <v>9</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="56">
+      <c r="A12" s="66">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s" s="67">
         <v>28</v>
       </c>
-      <c r="B12" t="s" s="57">
+      <c r="C12" t="s" s="68">
         <v>29</v>
       </c>
-      <c r="C12" t="s" s="58">
+      <c r="D12" t="s" s="69">
         <v>7</v>
       </c>
-      <c r="D12" t="s" s="59">
+      <c r="E12" t="s" s="70">
         <v>8</v>
       </c>
-      <c r="E12" t="s" s="60">
+      <c r="F12" t="s" s="71">
         <v>9</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="61">
+      <c r="A13" s="72">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s" s="73">
         <v>30</v>
       </c>
-      <c r="B13" t="s" s="62">
+      <c r="C13" t="s" s="74">
         <v>31</v>
       </c>
-      <c r="C13" t="s" s="63">
+      <c r="D13" t="s" s="75">
         <v>7</v>
       </c>
-      <c r="D13" t="s" s="64">
+      <c r="E13" t="s" s="76">
         <v>8</v>
       </c>
-      <c r="E13" t="s" s="65">
+      <c r="F13" t="s" s="77">
         <v>9</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s" s="66">
+      <c r="A14" s="78">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s" s="79">
         <v>32</v>
       </c>
-      <c r="B14" t="s" s="67">
+      <c r="C14" t="s" s="80">
         <v>33</v>
       </c>
-      <c r="C14" t="s" s="68">
+      <c r="D14" t="s" s="81">
         <v>7</v>
       </c>
-      <c r="D14" t="s" s="69">
+      <c r="E14" t="s" s="82">
         <v>34</v>
       </c>
-      <c r="E14" t="s" s="70">
+      <c r="F14" t="s" s="83">
         <v>9</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s" s="71">
+      <c r="A15" s="84">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s" s="85">
         <v>35</v>
       </c>
-      <c r="B15" t="s" s="72">
+      <c r="C15" t="s" s="86">
         <v>36</v>
       </c>
-      <c r="C15" t="s" s="73">
+      <c r="D15" t="s" s="87">
         <v>7</v>
       </c>
-      <c r="D15" t="s" s="74">
+      <c r="E15" t="s" s="88">
         <v>8</v>
       </c>
-      <c r="E15" t="s" s="75">
+      <c r="F15" t="s" s="89">
         <v>9</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="76">
+      <c r="A16" s="90">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s" s="91">
         <v>37</v>
       </c>
-      <c r="B16" t="s" s="77">
+      <c r="C16" t="s" s="92">
         <v>38</v>
       </c>
-      <c r="C16" t="s" s="78">
+      <c r="D16" t="s" s="93">
         <v>7</v>
       </c>
-      <c r="D16" t="s" s="79">
+      <c r="E16" t="s" s="94">
         <v>8</v>
       </c>
-      <c r="E16" t="s" s="80">
+      <c r="F16" t="s" s="95">
         <v>9</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="81">
+      <c r="A17" s="96">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s" s="97">
         <v>39</v>
       </c>
-      <c r="B17" t="s" s="82">
+      <c r="C17" t="s" s="98">
         <v>40</v>
       </c>
-      <c r="C17" t="s" s="83">
+      <c r="D17" t="s" s="99">
         <v>7</v>
       </c>
-      <c r="D17" t="s" s="84">
+      <c r="E17" t="s" s="100">
         <v>8</v>
       </c>
-      <c r="E17" t="s" s="85">
+      <c r="F17" t="s" s="101">
         <v>9</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="86">
+      <c r="A18" s="102">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s" s="103">
         <v>41</v>
       </c>
-      <c r="B18" t="s" s="87">
+      <c r="C18" t="s" s="104">
         <v>42</v>
       </c>
-      <c r="C18" t="s" s="88">
+      <c r="D18" t="s" s="105">
         <v>7</v>
       </c>
-      <c r="D18" t="s" s="89">
+      <c r="E18" t="s" s="106">
         <v>8</v>
       </c>
-      <c r="E18" t="s" s="90">
+      <c r="F18" t="s" s="107">
         <v>9</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s" s="91">
+      <c r="A19" s="108">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s" s="109">
         <v>43</v>
       </c>
-      <c r="B19" t="s" s="92">
+      <c r="C19" t="s" s="110">
         <v>44</v>
       </c>
-      <c r="C19" t="s" s="93">
+      <c r="D19" t="s" s="111">
         <v>7</v>
       </c>
-      <c r="D19" t="s" s="94">
+      <c r="E19" t="s" s="112">
         <v>8</v>
       </c>
-      <c r="E19" t="s" s="95">
+      <c r="F19" t="s" s="113">
         <v>9</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s" s="96">
+      <c r="A20" s="114">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s" s="115">
         <v>45</v>
       </c>
-      <c r="B20" t="s" s="97">
+      <c r="C20" t="s" s="116">
         <v>46</v>
       </c>
-      <c r="C20" t="s" s="98">
+      <c r="D20" t="s" s="117">
         <v>7</v>
       </c>
-      <c r="D20" t="s" s="99">
+      <c r="E20" t="s" s="118">
         <v>8</v>
       </c>
-      <c r="E20" t="s" s="100">
+      <c r="F20" t="s" s="119">
         <v>9</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s" s="101">
+      <c r="A21" s="120">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s" s="121">
         <v>47</v>
       </c>
-      <c r="B21" t="s" s="102">
+      <c r="C21" t="s" s="122">
         <v>48</v>
       </c>
-      <c r="C21" t="s" s="103">
+      <c r="D21" t="s" s="123">
         <v>7</v>
       </c>
-      <c r="D21" t="s" s="104">
+      <c r="E21" t="s" s="124">
         <v>8</v>
       </c>
-      <c r="E21" t="s" s="105">
+      <c r="F21" t="s" s="125">
         <v>9</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="106">
+      <c r="A22" s="126">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s" s="127">
         <v>49</v>
       </c>
-      <c r="B22" t="s" s="107">
+      <c r="C22" t="s" s="128">
         <v>50</v>
       </c>
-      <c r="C22" t="s" s="108">
+      <c r="D22" t="s" s="129">
         <v>7</v>
       </c>
-      <c r="D22" t="s" s="109">
+      <c r="E22" t="s" s="130">
         <v>8</v>
       </c>
-      <c r="E22" t="s" s="110">
+      <c r="F22" t="s" s="131">
         <v>9</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="111">
+      <c r="A23" s="132">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s" s="133">
         <v>51</v>
       </c>
-      <c r="B23" t="s" s="112">
+      <c r="C23" t="s" s="134">
         <v>52</v>
       </c>
-      <c r="C23" t="s" s="113">
+      <c r="D23" t="s" s="135">
         <v>7</v>
       </c>
-      <c r="D23" t="s" s="114">
+      <c r="E23" t="s" s="136">
         <v>53</v>
       </c>
-      <c r="E23" t="s" s="115">
+      <c r="F23" t="s" s="137">
         <v>9</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="116">
+      <c r="A24" s="138">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s" s="139">
         <v>54</v>
       </c>
-      <c r="B24" t="s" s="117">
+      <c r="C24" t="s" s="140">
         <v>55</v>
       </c>
-      <c r="C24" t="s" s="118">
+      <c r="D24" t="s" s="141">
         <v>7</v>
       </c>
-      <c r="D24" t="s" s="119">
+      <c r="E24" t="s" s="142">
         <v>8</v>
       </c>
-      <c r="E24" t="s" s="120">
+      <c r="F24" t="s" s="143">
         <v>9</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="121">
+      <c r="A25" s="144">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s" s="145">
         <v>56</v>
       </c>
-      <c r="B25" t="s" s="122">
+      <c r="C25" t="s" s="146">
         <v>57</v>
       </c>
-      <c r="C25" t="s" s="123">
+      <c r="D25" t="s" s="147">
         <v>7</v>
       </c>
-      <c r="D25" t="s" s="124">
+      <c r="E25" t="s" s="148">
         <v>8</v>
       </c>
-      <c r="E25" t="s" s="125">
+      <c r="F25" t="s" s="149">
         <v>9</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s" s="126">
+      <c r="A26" s="150">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s" s="151">
         <v>58</v>
       </c>
-      <c r="B26" t="s" s="127">
+      <c r="C26" t="s" s="152">
         <v>59</v>
       </c>
-      <c r="C26" t="s" s="128">
+      <c r="D26" t="s" s="153">
         <v>7</v>
       </c>
-      <c r="D26" t="s" s="129">
+      <c r="E26" t="s" s="154">
         <v>34</v>
       </c>
-      <c r="E26" t="s" s="130">
+      <c r="F26" t="s" s="155">
         <v>9</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s" s="131">
+      <c r="A27" s="156">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s" s="157">
         <v>60</v>
       </c>
-      <c r="B27" t="s" s="132">
+      <c r="C27" t="s" s="158">
         <v>61</v>
       </c>
-      <c r="C27" t="s" s="133">
+      <c r="D27" t="s" s="159">
         <v>7</v>
       </c>
-      <c r="D27" t="s" s="134">
+      <c r="E27" t="s" s="160">
         <v>8</v>
       </c>
-      <c r="E27" t="s" s="135">
+      <c r="F27" t="s" s="161">
         <v>9</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s" s="136">
+      <c r="A28" s="162">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s" s="163">
         <v>62</v>
       </c>
-      <c r="B28" t="s" s="137">
+      <c r="C28" t="s" s="164">
         <v>63</v>
       </c>
-      <c r="C28" t="s" s="138">
+      <c r="D28" t="s" s="165">
         <v>7</v>
       </c>
-      <c r="D28" t="s" s="139">
+      <c r="E28" t="s" s="166">
         <v>8</v>
       </c>
-      <c r="E28" t="s" s="140">
+      <c r="F28" t="s" s="167">
         <v>9</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s" s="141">
+      <c r="A29" s="168">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s" s="169">
         <v>64</v>
       </c>
-      <c r="B29" t="s" s="142">
+      <c r="C29" t="s" s="170">
         <v>65</v>
       </c>
-      <c r="C29" t="s" s="143">
+      <c r="D29" t="s" s="171">
         <v>7</v>
       </c>
-      <c r="D29" t="s" s="144">
+      <c r="E29" t="s" s="172">
         <v>8</v>
       </c>
-      <c r="E29" t="s" s="145">
+      <c r="F29" t="s" s="173">
         <v>9</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s" s="146">
+      <c r="A30" s="174">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s" s="175">
         <v>66</v>
       </c>
-      <c r="B30" t="s" s="147">
+      <c r="C30" t="s" s="176">
         <v>67</v>
       </c>
-      <c r="C30" t="s" s="148">
+      <c r="D30" t="s" s="177">
         <v>7</v>
       </c>
-      <c r="D30" t="s" s="149">
+      <c r="E30" t="s" s="178">
         <v>8</v>
       </c>
-      <c r="E30" t="s" s="150">
+      <c r="F30" t="s" s="179">
         <v>9</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s" s="151">
+      <c r="A31" s="180">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s" s="181">
         <v>68</v>
       </c>
-      <c r="B31" t="s" s="152">
+      <c r="C31" t="s" s="182">
         <v>69</v>
       </c>
-      <c r="C31" t="s" s="153">
+      <c r="D31" t="s" s="183">
         <v>7</v>
       </c>
-      <c r="D31" t="s" s="154">
+      <c r="E31" t="s" s="184">
         <v>8</v>
       </c>
-      <c r="E31" t="s" s="155">
+      <c r="F31" t="s" s="185">
         <v>9</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s" s="156">
+      <c r="A32" s="186">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s" s="187">
         <v>70</v>
       </c>
-      <c r="B32" t="s" s="157">
+      <c r="C32" t="s" s="188">
         <v>71</v>
       </c>
-      <c r="C32" t="s" s="158">
+      <c r="D32" t="s" s="189">
         <v>7</v>
       </c>
-      <c r="D32" t="s" s="159">
+      <c r="E32" t="s" s="190">
         <v>8</v>
       </c>
-      <c r="E32" t="s" s="160">
+      <c r="F32" t="s" s="191">
         <v>9</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s" s="161">
+      <c r="A33" s="192">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s" s="193">
         <v>72</v>
       </c>
-      <c r="B33" t="s" s="162">
+      <c r="C33" t="s" s="194">
         <v>73</v>
       </c>
-      <c r="C33" t="s" s="163">
+      <c r="D33" t="s" s="195">
         <v>7</v>
       </c>
-      <c r="D33" t="s" s="164">
+      <c r="E33" t="s" s="196">
         <v>8</v>
       </c>
-      <c r="E33" t="s" s="165">
+      <c r="F33" t="s" s="197">
         <v>9</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s" s="166">
+      <c r="A34" s="198">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s" s="199">
         <v>74</v>
       </c>
-      <c r="B34" t="s" s="167">
+      <c r="C34" t="s" s="200">
         <v>75</v>
       </c>
-      <c r="C34" t="s" s="168">
+      <c r="D34" t="s" s="201">
         <v>7</v>
       </c>
-      <c r="D34" t="s" s="169">
+      <c r="E34" t="s" s="202">
         <v>8</v>
       </c>
-      <c r="E34" t="s" s="170">
+      <c r="F34" t="s" s="203">
         <v>9</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s" s="171">
+      <c r="A35" s="204">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s" s="205">
         <v>76</v>
       </c>
-      <c r="B35" t="s" s="172">
+      <c r="C35" t="s" s="206">
         <v>77</v>
       </c>
-      <c r="C35" t="s" s="173">
+      <c r="D35" t="s" s="207">
         <v>7</v>
       </c>
-      <c r="D35" t="s" s="174">
+      <c r="E35" t="s" s="208">
         <v>8</v>
       </c>
-      <c r="E35" t="s" s="175">
+      <c r="F35" t="s" s="209">
         <v>9</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s" s="176">
+      <c r="A36" s="210">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s" s="211">
         <v>78</v>
       </c>
-      <c r="B36" t="s" s="177">
+      <c r="C36" t="s" s="212">
         <v>79</v>
       </c>
-      <c r="C36" t="s" s="178">
+      <c r="D36" t="s" s="213">
         <v>7</v>
       </c>
-      <c r="D36" t="s" s="179">
+      <c r="E36" t="s" s="214">
         <v>8</v>
       </c>
-      <c r="E36" t="s" s="180">
+      <c r="F36" t="s" s="215">
         <v>9</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s" s="181">
+      <c r="A37" s="216">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s" s="217">
         <v>80</v>
       </c>
-      <c r="B37" t="s" s="182">
+      <c r="C37" t="s" s="218">
         <v>81</v>
       </c>
-      <c r="C37" t="s" s="183">
+      <c r="D37" t="s" s="219">
         <v>7</v>
       </c>
-      <c r="D37" t="s" s="184">
+      <c r="E37" t="s" s="220">
         <v>8</v>
       </c>
-      <c r="E37" t="s" s="185">
+      <c r="F37" t="s" s="221">
         <v>9</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s" s="186">
+      <c r="A38" s="222">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s" s="223">
         <v>82</v>
       </c>
-      <c r="B38" t="s" s="187">
+      <c r="C38" t="s" s="224">
         <v>83</v>
       </c>
-      <c r="C38" t="s" s="188">
+      <c r="D38" t="s" s="225">
         <v>7</v>
       </c>
-      <c r="D38" t="s" s="189">
+      <c r="E38" t="s" s="226">
         <v>8</v>
       </c>
-      <c r="E38" t="s" s="190">
+      <c r="F38" t="s" s="227">
         <v>9</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="s" s="191">
+      <c r="A39" s="228">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s" s="229">
         <v>84</v>
       </c>
-      <c r="B39" t="s" s="192">
+      <c r="C39" t="s" s="230">
         <v>85</v>
       </c>
-      <c r="C39" t="s" s="193">
+      <c r="D39" t="s" s="231">
         <v>7</v>
       </c>
-      <c r="D39" t="s" s="194">
+      <c r="E39" t="s" s="232">
         <v>8</v>
       </c>
-      <c r="E39" t="s" s="195">
+      <c r="F39" t="s" s="233">
         <v>9</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s" s="196">
+      <c r="A40" s="234">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s" s="235">
         <v>86</v>
       </c>
-      <c r="B40" t="s" s="197">
+      <c r="C40" t="s" s="236">
         <v>87</v>
       </c>
-      <c r="C40" t="s" s="198">
+      <c r="D40" t="s" s="237">
         <v>7</v>
       </c>
-      <c r="D40" t="s" s="199">
+      <c r="E40" t="s" s="238">
         <v>8</v>
       </c>
-      <c r="E40" t="s" s="200">
+      <c r="F40" t="s" s="239">
         <v>9</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="s" s="201">
+      <c r="A41" s="240">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s" s="241">
         <v>88</v>
       </c>
-      <c r="B41" t="s" s="202">
+      <c r="C41" t="s" s="242">
         <v>89</v>
       </c>
-      <c r="C41" t="s" s="203">
+      <c r="D41" t="s" s="243">
         <v>7</v>
       </c>
-      <c r="D41" t="s" s="204">
+      <c r="E41" t="s" s="244">
         <v>8</v>
       </c>
-      <c r="E41" t="s" s="205">
+      <c r="F41" t="s" s="245">
         <v>9</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s" s="206">
+      <c r="A42" s="246">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s" s="247">
         <v>90</v>
       </c>
-      <c r="B42" t="s" s="207">
+      <c r="C42" t="s" s="248">
         <v>91</v>
       </c>
-      <c r="C42" t="s" s="208">
+      <c r="D42" t="s" s="249">
         <v>7</v>
       </c>
-      <c r="D42" t="s" s="209">
+      <c r="E42" t="s" s="250">
         <v>8</v>
       </c>
-      <c r="E42" t="s" s="210">
+      <c r="F42" t="s" s="251">
         <v>9</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="s" s="211">
+      <c r="A43" s="252">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s" s="253">
         <v>92</v>
       </c>
-      <c r="B43" t="s" s="212">
+      <c r="C43" t="s" s="254">
         <v>93</v>
       </c>
-      <c r="C43" t="s" s="213">
+      <c r="D43" t="s" s="255">
         <v>7</v>
       </c>
-      <c r="D43" t="s" s="214">
+      <c r="E43" t="s" s="256">
         <v>8</v>
       </c>
-      <c r="E43" t="s" s="215">
+      <c r="F43" t="s" s="257">
         <v>9</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s" s="216">
+      <c r="A44" s="258">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s" s="259">
         <v>94</v>
       </c>
-      <c r="B44" t="s" s="217">
+      <c r="C44" t="s" s="260">
         <v>95</v>
       </c>
-      <c r="C44" t="s" s="218">
+      <c r="D44" t="s" s="261">
         <v>7</v>
       </c>
-      <c r="D44" t="s" s="219">
+      <c r="E44" t="s" s="262">
         <v>8</v>
       </c>
-      <c r="E44" t="s" s="220">
+      <c r="F44" t="s" s="263">
         <v>9</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="221">
+      <c r="A45" s="264">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s" s="265">
         <v>96</v>
       </c>
-      <c r="B45" t="s" s="222">
+      <c r="C45" t="s" s="266">
         <v>97</v>
       </c>
-      <c r="C45" t="s" s="223">
+      <c r="D45" t="s" s="267">
         <v>7</v>
       </c>
-      <c r="D45" t="s" s="224">
+      <c r="E45" t="s" s="268">
         <v>98</v>
       </c>
-      <c r="E45" t="s" s="225">
+      <c r="F45" t="s" s="269">
         <v>9</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s" s="226">
+      <c r="A46" s="270">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s" s="271">
         <v>99</v>
       </c>
-      <c r="B46" t="s" s="227">
+      <c r="C46" t="s" s="272">
         <v>100</v>
       </c>
-      <c r="C46" t="s" s="228">
+      <c r="D46" t="s" s="273">
         <v>7</v>
       </c>
-      <c r="D46" t="s" s="229">
+      <c r="E46" t="s" s="274">
         <v>8</v>
       </c>
-      <c r="E46" t="s" s="230">
+      <c r="F46" t="s" s="275">
         <v>9</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="s" s="231">
+      <c r="A47" s="276">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s" s="277">
         <v>101</v>
       </c>
-      <c r="B47" t="s" s="232">
+      <c r="C47" t="s" s="278">
         <v>102</v>
       </c>
-      <c r="C47" t="s" s="233">
+      <c r="D47" t="s" s="279">
         <v>7</v>
       </c>
-      <c r="D47" t="s" s="234">
+      <c r="E47" t="s" s="280">
         <v>8</v>
       </c>
-      <c r="E47" t="s" s="235">
+      <c r="F47" t="s" s="281">
         <v>9</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s" s="236">
+      <c r="A48" s="282">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s" s="283">
         <v>103</v>
       </c>
-      <c r="B48" t="s" s="237">
+      <c r="C48" t="s" s="284">
         <v>104</v>
       </c>
-      <c r="C48" t="s" s="238">
+      <c r="D48" t="s" s="285">
         <v>7</v>
       </c>
-      <c r="D48" t="s" s="239">
+      <c r="E48" t="s" s="286">
         <v>8</v>
       </c>
-      <c r="E48" t="s" s="240">
+      <c r="F48" t="s" s="287">
         <v>9</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="s" s="241">
+      <c r="A49" s="288">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s" s="289">
         <v>105</v>
       </c>
-      <c r="B49" t="s" s="242">
+      <c r="C49" t="s" s="290">
         <v>106</v>
       </c>
-      <c r="C49" t="s" s="243">
+      <c r="D49" t="s" s="291">
         <v>7</v>
       </c>
-      <c r="D49" t="s" s="244">
+      <c r="E49" t="s" s="292">
         <v>8</v>
       </c>
-      <c r="E49" t="s" s="245">
+      <c r="F49" t="s" s="293">
         <v>9</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s" s="246">
+      <c r="A50" s="294">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s" s="295">
         <v>107</v>
       </c>
-      <c r="B50" t="s" s="247">
+      <c r="C50" t="s" s="296">
         <v>108</v>
       </c>
-      <c r="C50" t="s" s="248">
+      <c r="D50" t="s" s="297">
         <v>7</v>
       </c>
-      <c r="D50" t="s" s="249">
+      <c r="E50" t="s" s="298">
         <v>8</v>
       </c>
-      <c r="E50" t="s" s="250">
+      <c r="F50" t="s" s="299">
         <v>9</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="s" s="251">
+      <c r="A51" s="300">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s" s="301">
         <v>109</v>
       </c>
-      <c r="B51" t="s" s="252">
+      <c r="C51" t="s" s="302">
         <v>110</v>
       </c>
-      <c r="C51" t="s" s="253">
+      <c r="D51" t="s" s="303">
         <v>7</v>
       </c>
-      <c r="D51" t="s" s="254">
+      <c r="E51" t="s" s="304">
         <v>8</v>
       </c>
-      <c r="E51" t="s" s="255">
+      <c r="F51" t="s" s="305">
         <v>9</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="s" s="256">
+      <c r="A52" s="306">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s" s="307">
         <v>111</v>
       </c>
-      <c r="B52" t="s" s="257">
+      <c r="C52" t="s" s="308">
         <v>112</v>
       </c>
-      <c r="C52" t="s" s="258">
+      <c r="D52" t="s" s="309">
         <v>7</v>
       </c>
-      <c r="D52" t="s" s="259">
+      <c r="E52" t="s" s="310">
         <v>8</v>
       </c>
-      <c r="E52" t="s" s="260">
+      <c r="F52" t="s" s="311">
         <v>9</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="s" s="261">
+      <c r="A53" s="312">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s" s="313">
         <v>113</v>
       </c>
-      <c r="B53" t="s" s="262">
+      <c r="C53" t="s" s="314">
         <v>114</v>
       </c>
-      <c r="C53" t="s" s="263">
+      <c r="D53" t="s" s="315">
         <v>7</v>
       </c>
-      <c r="D53" t="s" s="264">
+      <c r="E53" t="s" s="316">
         <v>8</v>
       </c>
-      <c r="E53" t="s" s="265">
+      <c r="F53" t="s" s="317">
         <v>9</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="s" s="266">
+      <c r="A54" s="318">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s" s="319">
         <v>115</v>
       </c>
-      <c r="B54" t="s" s="267">
+      <c r="C54" t="s" s="320">
         <v>116</v>
       </c>
-      <c r="C54" t="s" s="268">
+      <c r="D54" t="s" s="321">
         <v>7</v>
       </c>
-      <c r="D54" t="s" s="269">
+      <c r="E54" t="s" s="322">
         <v>8</v>
       </c>
-      <c r="E54" t="s" s="270">
+      <c r="F54" t="s" s="323">
         <v>9</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="s" s="271">
+      <c r="A55" s="324">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s" s="325">
         <v>117</v>
       </c>
-      <c r="B55" t="s" s="272">
+      <c r="C55" t="s" s="326">
         <v>118</v>
       </c>
-      <c r="C55" t="s" s="273">
+      <c r="D55" t="s" s="327">
         <v>7</v>
       </c>
-      <c r="D55" t="s" s="274">
+      <c r="E55" t="s" s="328">
         <v>8</v>
       </c>
-      <c r="E55" t="s" s="275">
+      <c r="F55" t="s" s="329">
         <v>9</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="s" s="276">
+      <c r="A56" s="330">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s" s="331">
         <v>119</v>
       </c>
-      <c r="B56" t="s" s="277">
+      <c r="C56" t="s" s="332">
         <v>120</v>
       </c>
-      <c r="C56" t="s" s="278">
+      <c r="D56" t="s" s="333">
         <v>7</v>
       </c>
-      <c r="D56" t="s" s="279">
+      <c r="E56" t="s" s="334">
         <v>8</v>
       </c>
-      <c r="E56" t="s" s="280">
+      <c r="F56" t="s" s="335">
         <v>9</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="s" s="281">
+      <c r="A57" s="336">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s" s="337">
         <v>121</v>
       </c>
-      <c r="B57" t="s" s="282">
+      <c r="C57" t="s" s="338">
         <v>122</v>
       </c>
-      <c r="C57" t="s" s="283">
+      <c r="D57" t="s" s="339">
         <v>7</v>
       </c>
-      <c r="D57" t="s" s="284">
+      <c r="E57" t="s" s="340">
         <v>8</v>
       </c>
-      <c r="E57" t="s" s="285">
+      <c r="F57" t="s" s="341">
         <v>9</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="s" s="286">
+      <c r="A58" s="342">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s" s="343">
         <v>123</v>
       </c>
-      <c r="B58" t="s" s="287">
+      <c r="C58" t="s" s="344">
         <v>124</v>
       </c>
-      <c r="C58" t="s" s="288">
+      <c r="D58" t="s" s="345">
         <v>7</v>
       </c>
-      <c r="D58" t="s" s="289">
+      <c r="E58" t="s" s="346">
         <v>125</v>
       </c>
-      <c r="E58" t="s" s="290">
+      <c r="F58" t="s" s="347">
         <v>9</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="s" s="291">
+      <c r="A59" s="348">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s" s="349">
         <v>126</v>
       </c>
-      <c r="B59" t="s" s="292">
+      <c r="C59" t="s" s="350">
         <v>127</v>
       </c>
-      <c r="C59" t="s" s="293">
+      <c r="D59" t="s" s="351">
         <v>7</v>
       </c>
-      <c r="D59" t="s" s="294">
+      <c r="E59" t="s" s="352">
         <v>8</v>
       </c>
-      <c r="E59" t="s" s="295">
+      <c r="F59" t="s" s="353">
         <v>9</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="s" s="296">
+      <c r="A60" s="354">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s" s="355">
         <v>128</v>
       </c>
-      <c r="B60" t="s" s="297">
+      <c r="C60" t="s" s="356">
         <v>129</v>
       </c>
-      <c r="C60" t="s" s="298">
+      <c r="D60" t="s" s="357">
         <v>7</v>
       </c>
-      <c r="D60" t="s" s="299">
+      <c r="E60" t="s" s="358">
         <v>8</v>
       </c>
-      <c r="E60" t="s" s="300">
+      <c r="F60" t="s" s="359">
         <v>9</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="s" s="301">
+      <c r="A61" s="360">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s" s="361">
         <v>130</v>
       </c>
-      <c r="B61" t="s" s="302">
+      <c r="C61" t="s" s="362">
         <v>131</v>
       </c>
-      <c r="C61" t="s" s="303">
+      <c r="D61" t="s" s="363">
         <v>7</v>
       </c>
-      <c r="D61" t="s" s="304">
+      <c r="E61" t="s" s="364">
         <v>8</v>
       </c>
-      <c r="E61" t="s" s="305">
+      <c r="F61" t="s" s="365">
         <v>9</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="s" s="306">
+      <c r="A62" s="366">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s" s="367">
         <v>132</v>
       </c>
-      <c r="B62" t="s" s="307">
+      <c r="C62" t="s" s="368">
         <v>133</v>
       </c>
-      <c r="C62" t="s" s="308">
+      <c r="D62" t="s" s="369">
         <v>7</v>
       </c>
-      <c r="D62" t="s" s="309">
+      <c r="E62" t="s" s="370">
         <v>8</v>
       </c>
-      <c r="E62" t="s" s="310">
+      <c r="F62" t="s" s="371">
         <v>9</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="s" s="311">
+      <c r="A63" s="372">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s" s="373">
         <v>134</v>
       </c>
-      <c r="B63" t="s" s="312">
+      <c r="C63" t="s" s="374">
         <v>135</v>
       </c>
-      <c r="C63" t="s" s="313">
+      <c r="D63" t="s" s="375">
         <v>7</v>
       </c>
-      <c r="D63" t="s" s="314">
+      <c r="E63" t="s" s="376">
         <v>8</v>
       </c>
-      <c r="E63" t="s" s="315">
+      <c r="F63" t="s" s="377">
         <v>9</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="s" s="316">
+      <c r="A64" s="378">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s" s="379">
         <v>136</v>
       </c>
-      <c r="B64" t="s" s="317">
+      <c r="C64" t="s" s="380">
         <v>137</v>
       </c>
-      <c r="C64" t="s" s="318">
+      <c r="D64" t="s" s="381">
         <v>7</v>
       </c>
-      <c r="D64" t="s" s="319">
+      <c r="E64" t="s" s="382">
         <v>8</v>
       </c>
-      <c r="E64" t="s" s="320">
+      <c r="F64" t="s" s="383">
         <v>9</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="s" s="321">
+      <c r="A65" s="384">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s" s="385">
         <v>138</v>
       </c>
-      <c r="B65" t="s" s="322">
+      <c r="C65" t="s" s="386">
         <v>139</v>
       </c>
-      <c r="C65" t="s" s="323">
+      <c r="D65" t="s" s="387">
         <v>7</v>
       </c>
-      <c r="D65" t="s" s="324">
+      <c r="E65" t="s" s="388">
         <v>8</v>
       </c>
-      <c r="E65" t="s" s="325">
+      <c r="F65" t="s" s="389">
         <v>9</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="s" s="326">
+      <c r="A66" s="390">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s" s="391">
         <v>140</v>
       </c>
-      <c r="B66" t="s" s="327">
+      <c r="C66" t="s" s="392">
         <v>141</v>
       </c>
-      <c r="C66" t="s" s="328">
+      <c r="D66" t="s" s="393">
         <v>7</v>
       </c>
-      <c r="D66" t="s" s="329">
+      <c r="E66" t="s" s="394">
         <v>8</v>
       </c>
-      <c r="E66" t="s" s="330">
+      <c r="F66" t="s" s="395">
         <v>9</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="s" s="331">
+      <c r="A67" s="396">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s" s="397">
         <v>142</v>
       </c>
-      <c r="B67" t="s" s="332">
+      <c r="C67" t="s" s="398">
         <v>143</v>
       </c>
-      <c r="C67" t="s" s="333">
+      <c r="D67" t="s" s="399">
         <v>7</v>
       </c>
-      <c r="D67" t="s" s="334">
+      <c r="E67" t="s" s="400">
         <v>8</v>
       </c>
-      <c r="E67" t="s" s="335">
+      <c r="F67" t="s" s="401">
         <v>9</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="s" s="336">
+      <c r="A68" s="402">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s" s="403">
         <v>144</v>
       </c>
-      <c r="B68" t="s" s="337">
+      <c r="C68" t="s" s="404">
         <v>145</v>
       </c>
-      <c r="C68" t="s" s="338">
+      <c r="D68" t="s" s="405">
         <v>7</v>
       </c>
-      <c r="D68" t="s" s="339">
+      <c r="E68" t="s" s="406">
         <v>8</v>
       </c>
-      <c r="E68" t="s" s="340">
+      <c r="F68" t="s" s="407">
         <v>9</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="s" s="341">
+      <c r="A69" s="408">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s" s="409">
         <v>146</v>
       </c>
-      <c r="B69" t="s" s="342">
+      <c r="C69" t="s" s="410">
         <v>147</v>
       </c>
-      <c r="C69" t="s" s="343">
+      <c r="D69" t="s" s="411">
         <v>7</v>
       </c>
-      <c r="D69" t="s" s="344">
+      <c r="E69" t="s" s="412">
         <v>8</v>
       </c>
-      <c r="E69" t="s" s="345">
+      <c r="F69" t="s" s="413">
         <v>9</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="s" s="346">
+      <c r="A70" s="414">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s" s="415">
         <v>148</v>
       </c>
-      <c r="B70" t="s" s="347">
+      <c r="C70" t="s" s="416">
         <v>149</v>
       </c>
-      <c r="C70" t="s" s="348">
+      <c r="D70" t="s" s="417">
         <v>7</v>
       </c>
-      <c r="D70" t="s" s="349">
+      <c r="E70" t="s" s="418">
         <v>8</v>
       </c>
-      <c r="E70" t="s" s="350">
+      <c r="F70" t="s" s="419">
         <v>9</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="s" s="351">
+      <c r="A71" s="420">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s" s="421">
         <v>150</v>
       </c>
-      <c r="B71" t="s" s="352">
+      <c r="C71" t="s" s="422">
         <v>151</v>
       </c>
-      <c r="C71" t="s" s="353">
+      <c r="D71" t="s" s="423">
         <v>7</v>
       </c>
-      <c r="D71" t="s" s="354">
+      <c r="E71" t="s" s="424">
         <v>8</v>
       </c>
-      <c r="E71" t="s" s="355">
+      <c r="F71" t="s" s="425">
         <v>9</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="s" s="356">
+      <c r="A72" s="426">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s" s="427">
         <v>152</v>
       </c>
-      <c r="B72" t="s" s="357">
+      <c r="C72" t="s" s="428">
         <v>153</v>
       </c>
-      <c r="C72" t="s" s="358">
+      <c r="D72" t="s" s="429">
         <v>7</v>
       </c>
-      <c r="D72" t="s" s="359">
+      <c r="E72" t="s" s="430">
         <v>8</v>
       </c>
-      <c r="E72" t="s" s="360">
+      <c r="F72" t="s" s="431">
         <v>9</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="s" s="361">
+      <c r="A73" s="432">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s" s="433">
         <v>154</v>
       </c>
-      <c r="B73" t="s" s="362">
+      <c r="C73" t="s" s="434">
         <v>155</v>
       </c>
-      <c r="C73" t="s" s="363">
+      <c r="D73" t="s" s="435">
         <v>7</v>
       </c>
-      <c r="D73" t="s" s="364">
+      <c r="E73" t="s" s="436">
         <v>8</v>
       </c>
-      <c r="E73" t="s" s="365">
+      <c r="F73" t="s" s="437">
         <v>9</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="s" s="366">
+      <c r="A74" s="438">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s" s="439">
         <v>156</v>
       </c>
-      <c r="B74" t="s" s="367">
+      <c r="C74" t="s" s="440">
         <v>157</v>
       </c>
-      <c r="C74" t="s" s="368">
+      <c r="D74" t="s" s="441">
         <v>7</v>
       </c>
-      <c r="D74" t="s" s="369">
+      <c r="E74" t="s" s="442">
         <v>8</v>
       </c>
-      <c r="E74" t="s" s="370">
+      <c r="F74" t="s" s="443">
         <v>9</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="s" s="371">
+      <c r="A75" s="444">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s" s="445">
         <v>158</v>
       </c>
-      <c r="B75" t="s" s="372">
+      <c r="C75" t="s" s="446">
         <v>159</v>
       </c>
-      <c r="C75" t="s" s="373">
+      <c r="D75" t="s" s="447">
         <v>7</v>
       </c>
-      <c r="D75" t="s" s="374">
+      <c r="E75" t="s" s="448">
         <v>8</v>
       </c>
-      <c r="E75" t="s" s="375">
+      <c r="F75" t="s" s="449">
         <v>9</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="s" s="376">
+      <c r="A76" s="450">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s" s="451">
         <v>160</v>
       </c>
-      <c r="B76" t="s" s="377">
+      <c r="C76" t="s" s="452">
         <v>161</v>
       </c>
-      <c r="C76" t="s" s="378">
+      <c r="D76" t="s" s="453">
         <v>7</v>
       </c>
-      <c r="D76" t="s" s="379">
+      <c r="E76" t="s" s="454">
         <v>34</v>
       </c>
-      <c r="E76" t="s" s="380">
+      <c r="F76" t="s" s="455">
         <v>9</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="s" s="381">
+      <c r="A77" s="456">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s" s="457">
         <v>162</v>
       </c>
-      <c r="B77" t="s" s="382">
+      <c r="C77" t="s" s="458">
         <v>163</v>
       </c>
-      <c r="C77" t="s" s="383">
+      <c r="D77" t="s" s="459">
         <v>7</v>
       </c>
-      <c r="D77" t="s" s="384">
+      <c r="E77" t="s" s="460">
         <v>8</v>
       </c>
-      <c r="E77" t="s" s="385">
+      <c r="F77" t="s" s="461">
         <v>9</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="s" s="386">
+      <c r="A78" s="462">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s" s="463">
         <v>164</v>
       </c>
-      <c r="B78" t="s" s="387">
+      <c r="C78" t="s" s="464">
         <v>165</v>
       </c>
-      <c r="C78" t="s" s="388">
+      <c r="D78" t="s" s="465">
         <v>7</v>
       </c>
-      <c r="D78" t="s" s="389">
+      <c r="E78" t="s" s="466">
         <v>8</v>
       </c>
-      <c r="E78" t="s" s="390">
+      <c r="F78" t="s" s="467">
         <v>9</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="s" s="391">
+      <c r="A79" s="468">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s" s="469">
         <v>166</v>
       </c>
-      <c r="B79" t="s" s="392">
+      <c r="C79" t="s" s="470">
         <v>167</v>
       </c>
-      <c r="C79" t="s" s="393">
+      <c r="D79" t="s" s="471">
         <v>7</v>
       </c>
-      <c r="D79" t="s" s="394">
+      <c r="E79" t="s" s="472">
         <v>8</v>
       </c>
-      <c r="E79" t="s" s="395">
+      <c r="F79" t="s" s="473">
         <v>9</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="s" s="396">
+      <c r="A80" s="474">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s" s="475">
         <v>168</v>
       </c>
-      <c r="B80" t="s" s="397">
+      <c r="C80" t="s" s="476">
         <v>169</v>
       </c>
-      <c r="C80" t="s" s="398">
+      <c r="D80" t="s" s="477">
         <v>7</v>
       </c>
-      <c r="D80" t="s" s="399">
+      <c r="E80" t="s" s="478">
         <v>8</v>
       </c>
-      <c r="E80" t="s" s="400">
+      <c r="F80" t="s" s="479">
         <v>9</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="s" s="401">
+      <c r="A81" s="480">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s" s="481">
         <v>170</v>
       </c>
-      <c r="B81" t="s" s="402">
+      <c r="C81" t="s" s="482">
         <v>171</v>
       </c>
-      <c r="C81" t="s" s="403">
+      <c r="D81" t="s" s="483">
         <v>7</v>
       </c>
-      <c r="D81" t="s" s="404">
+      <c r="E81" t="s" s="484">
         <v>8</v>
       </c>
-      <c r="E81" t="s" s="405">
+      <c r="F81" t="s" s="485">
         <v>9</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="s" s="406">
+      <c r="A82" s="486">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s" s="487">
         <v>172</v>
       </c>
-      <c r="B82" t="s" s="407">
+      <c r="C82" t="s" s="488">
         <v>173</v>
       </c>
-      <c r="C82" t="s" s="408">
+      <c r="D82" t="s" s="489">
         <v>7</v>
       </c>
-      <c r="D82" t="s" s="409">
+      <c r="E82" t="s" s="490">
         <v>8</v>
       </c>
-      <c r="E82" t="s" s="410">
+      <c r="F82" t="s" s="491">
         <v>9</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="s" s="411">
+      <c r="A83" s="492">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s" s="493">
         <v>174</v>
       </c>
-      <c r="B83" t="s" s="412">
+      <c r="C83" t="s" s="494">
         <v>175</v>
       </c>
-      <c r="C83" t="s" s="413">
+      <c r="D83" t="s" s="495">
         <v>7</v>
       </c>
-      <c r="D83" t="s" s="414">
+      <c r="E83" t="s" s="496">
         <v>53</v>
       </c>
-      <c r="E83" t="s" s="415">
+      <c r="F83" t="s" s="497">
         <v>9</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="s" s="416">
+      <c r="A84" s="498">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s" s="499">
         <v>176</v>
       </c>
-      <c r="B84" t="s" s="417">
+      <c r="C84" t="s" s="500">
         <v>177</v>
       </c>
-      <c r="C84" t="s" s="418">
+      <c r="D84" t="s" s="501">
         <v>7</v>
       </c>
-      <c r="D84" t="s" s="419">
+      <c r="E84" t="s" s="502">
         <v>8</v>
       </c>
-      <c r="E84" t="s" s="420">
+      <c r="F84" t="s" s="503">
         <v>9</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="s" s="421">
+      <c r="A85" s="504">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s" s="505">
         <v>178</v>
       </c>
-      <c r="B85" t="s" s="422">
+      <c r="C85" t="s" s="506">
         <v>179</v>
       </c>
-      <c r="C85" t="s" s="423">
+      <c r="D85" t="s" s="507">
         <v>7</v>
       </c>
-      <c r="D85" t="s" s="424">
+      <c r="E85" t="s" s="508">
         <v>8</v>
       </c>
-      <c r="E85" t="s" s="425">
+      <c r="F85" t="s" s="509">
         <v>9</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="s" s="426">
+      <c r="A86" s="510">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s" s="511">
         <v>180</v>
       </c>
-      <c r="B86" t="s" s="427">
+      <c r="C86" t="s" s="512">
         <v>181</v>
       </c>
-      <c r="C86" t="s" s="428">
+      <c r="D86" t="s" s="513">
         <v>7</v>
       </c>
-      <c r="D86" t="s" s="429">
+      <c r="E86" t="s" s="514">
         <v>8</v>
       </c>
-      <c r="E86" t="s" s="430">
+      <c r="F86" t="s" s="515">
         <v>9</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="s" s="431">
+      <c r="A87" s="516">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s" s="517">
         <v>182</v>
       </c>
-      <c r="B87" t="s" s="432">
+      <c r="C87" t="s" s="518">
         <v>183</v>
       </c>
-      <c r="C87" t="s" s="433">
+      <c r="D87" t="s" s="519">
         <v>7</v>
       </c>
-      <c r="D87" t="s" s="434">
+      <c r="E87" t="s" s="520">
         <v>8</v>
       </c>
-      <c r="E87" t="s" s="435">
+      <c r="F87" t="s" s="521">
         <v>9</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="s" s="436">
+      <c r="A88" s="522">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s" s="523">
         <v>184</v>
       </c>
-      <c r="B88" t="s" s="437">
+      <c r="C88" t="s" s="524">
         <v>185</v>
       </c>
-      <c r="C88" t="s" s="438">
+      <c r="D88" t="s" s="525">
         <v>7</v>
       </c>
-      <c r="D88" t="s" s="439">
+      <c r="E88" t="s" s="526">
         <v>8</v>
       </c>
-      <c r="E88" t="s" s="440">
+      <c r="F88" t="s" s="527">
         <v>9</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="s" s="441">
+      <c r="A89" s="528">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s" s="529">
         <v>186</v>
       </c>
-      <c r="B89" t="s" s="442">
+      <c r="C89" t="s" s="530">
         <v>187</v>
       </c>
-      <c r="C89" t="s" s="443">
+      <c r="D89" t="s" s="531">
         <v>7</v>
       </c>
-      <c r="D89" t="s" s="444">
+      <c r="E89" t="s" s="532">
         <v>8</v>
       </c>
-      <c r="E89" t="s" s="445">
+      <c r="F89" t="s" s="533">
         <v>9</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="s" s="446">
+      <c r="A90" s="534">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s" s="535">
         <v>188</v>
       </c>
-      <c r="B90" t="s" s="447">
+      <c r="C90" t="s" s="536">
         <v>189</v>
       </c>
-      <c r="C90" t="s" s="448">
+      <c r="D90" t="s" s="537">
         <v>7</v>
       </c>
-      <c r="D90" t="s" s="449">
+      <c r="E90" t="s" s="538">
         <v>8</v>
       </c>
-      <c r="E90" t="s" s="450">
+      <c r="F90" t="s" s="539">
         <v>9</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="s" s="451">
+      <c r="A91" s="540">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s" s="541">
         <v>190</v>
       </c>
-      <c r="B91" t="s" s="452">
+      <c r="C91" t="s" s="542">
         <v>191</v>
       </c>
-      <c r="C91" t="s" s="453">
+      <c r="D91" t="s" s="543">
         <v>7</v>
       </c>
-      <c r="D91" t="s" s="454">
+      <c r="E91" t="s" s="544">
         <v>8</v>
       </c>
-      <c r="E91" t="s" s="455">
+      <c r="F91" t="s" s="545">
         <v>9</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="s" s="456">
+      <c r="A92" s="546">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s" s="547">
         <v>192</v>
       </c>
-      <c r="B92" t="s" s="457">
+      <c r="C92" t="s" s="548">
         <v>193</v>
       </c>
-      <c r="C92" t="s" s="458">
+      <c r="D92" t="s" s="549">
         <v>7</v>
       </c>
-      <c r="D92" t="s" s="459">
+      <c r="E92" t="s" s="550">
         <v>8</v>
       </c>
-      <c r="E92" t="s" s="460">
+      <c r="F92" t="s" s="551">
         <v>9</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="s" s="461">
+      <c r="A93" s="552">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s" s="553">
         <v>194</v>
       </c>
-      <c r="B93" t="s" s="462">
+      <c r="C93" t="s" s="554">
         <v>195</v>
       </c>
-      <c r="C93" t="s" s="463">
+      <c r="D93" t="s" s="555">
         <v>7</v>
       </c>
-      <c r="D93" t="s" s="464">
+      <c r="E93" t="s" s="556">
         <v>8</v>
       </c>
-      <c r="E93" t="s" s="465">
+      <c r="F93" t="s" s="557">
         <v>9</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="s" s="466">
+      <c r="A94" s="558">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s" s="559">
         <v>196</v>
       </c>
-      <c r="B94" t="s" s="467">
+      <c r="C94" t="s" s="560">
         <v>197</v>
       </c>
-      <c r="C94" t="s" s="468">
+      <c r="D94" t="s" s="561">
         <v>7</v>
       </c>
-      <c r="D94" t="s" s="469">
+      <c r="E94" t="s" s="562">
         <v>8</v>
       </c>
-      <c r="E94" t="s" s="470">
+      <c r="F94" t="s" s="563">
         <v>9</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="s" s="471">
+      <c r="A95" s="564">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s" s="565">
         <v>198</v>
       </c>
-      <c r="B95" t="s" s="472">
+      <c r="C95" t="s" s="566">
         <v>199</v>
       </c>
-      <c r="C95" t="s" s="473">
+      <c r="D95" t="s" s="567">
         <v>7</v>
       </c>
-      <c r="D95" t="s" s="474">
+      <c r="E95" t="s" s="568">
         <v>8</v>
       </c>
-      <c r="E95" t="s" s="475">
+      <c r="F95" t="s" s="569">
         <v>9</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="s" s="476">
+      <c r="A96" s="570">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s" s="571">
         <v>200</v>
       </c>
-      <c r="B96" t="s" s="477">
+      <c r="C96" t="s" s="572">
         <v>201</v>
       </c>
-      <c r="C96" t="s" s="478">
+      <c r="D96" t="s" s="573">
         <v>7</v>
       </c>
-      <c r="D96" t="s" s="479">
+      <c r="E96" t="s" s="574">
         <v>8</v>
       </c>
-      <c r="E96" t="s" s="480">
+      <c r="F96" t="s" s="575">
         <v>9</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="s" s="481">
+      <c r="A97" s="576">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s" s="577">
         <v>202</v>
       </c>
-      <c r="B97" t="s" s="482">
+      <c r="C97" t="s" s="578">
         <v>203</v>
       </c>
-      <c r="C97" t="s" s="483">
+      <c r="D97" t="s" s="579">
         <v>7</v>
       </c>
-      <c r="D97" t="s" s="484">
+      <c r="E97" t="s" s="580">
         <v>8</v>
       </c>
-      <c r="E97" t="s" s="485">
+      <c r="F97" t="s" s="581">
         <v>9</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="s" s="486">
+      <c r="A98" s="582">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s" s="583">
         <v>204</v>
       </c>
-      <c r="B98" t="s" s="487">
+      <c r="C98" t="s" s="584">
         <v>205</v>
       </c>
-      <c r="C98" t="s" s="488">
+      <c r="D98" t="s" s="585">
         <v>7</v>
       </c>
-      <c r="D98" t="s" s="489">
+      <c r="E98" t="s" s="586">
         <v>8</v>
       </c>
-      <c r="E98" t="s" s="490">
+      <c r="F98" t="s" s="587">
         <v>9</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="s" s="491">
+      <c r="A99" s="588">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s" s="589">
         <v>206</v>
       </c>
-      <c r="B99" t="s" s="492">
+      <c r="C99" t="s" s="590">
         <v>207</v>
       </c>
-      <c r="C99" t="s" s="493">
+      <c r="D99" t="s" s="591">
         <v>7</v>
       </c>
-      <c r="D99" t="s" s="494">
+      <c r="E99" t="s" s="592">
         <v>8</v>
       </c>
-      <c r="E99" t="s" s="495">
+      <c r="F99" t="s" s="593">
         <v>9</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="s" s="496">
+      <c r="A100" s="594">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s" s="595">
         <v>208</v>
       </c>
-      <c r="B100" t="s" s="497">
+      <c r="C100" t="s" s="596">
         <v>209</v>
       </c>
-      <c r="C100" t="s" s="498">
+      <c r="D100" t="s" s="597">
         <v>7</v>
       </c>
-      <c r="D100" t="s" s="499">
+      <c r="E100" t="s" s="598">
         <v>34</v>
       </c>
-      <c r="E100" t="s" s="500">
+      <c r="F100" t="s" s="599">
         <v>9</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="s" s="501">
+      <c r="A101" s="600">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s" s="601">
         <v>210</v>
       </c>
-      <c r="B101" t="s" s="502">
+      <c r="C101" t="s" s="602">
         <v>211</v>
       </c>
-      <c r="C101" t="s" s="503">
+      <c r="D101" t="s" s="603">
         <v>7</v>
       </c>
-      <c r="D101" t="s" s="504">
+      <c r="E101" t="s" s="604">
         <v>8</v>
       </c>
-      <c r="E101" t="s" s="505">
+      <c r="F101" t="s" s="605">
         <v>9</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="s" s="506">
+      <c r="A102" s="606">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s" s="607">
         <v>212</v>
       </c>
-      <c r="B102" t="s" s="507">
+      <c r="C102" t="s" s="608">
         <v>213</v>
       </c>
-      <c r="C102" t="s" s="508">
+      <c r="D102" t="s" s="609">
         <v>7</v>
       </c>
-      <c r="D102" t="s" s="509">
+      <c r="E102" t="s" s="610">
         <v>8</v>
       </c>
-      <c r="E102" t="s" s="510">
+      <c r="F102" t="s" s="611">
         <v>9</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="s" s="511">
+      <c r="A103" s="612">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s" s="613">
         <v>214</v>
       </c>
-      <c r="B103" t="s" s="512">
+      <c r="C103" t="s" s="614">
         <v>215</v>
       </c>
-      <c r="C103" t="s" s="513">
+      <c r="D103" t="s" s="615">
         <v>7</v>
       </c>
-      <c r="D103" t="s" s="514">
+      <c r="E103" t="s" s="616">
         <v>8</v>
       </c>
-      <c r="E103" t="s" s="515">
+      <c r="F103" t="s" s="617">
         <v>9</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="s" s="516">
+      <c r="A104" s="618">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s" s="619">
         <v>216</v>
       </c>
-      <c r="B104" t="s" s="517">
+      <c r="C104" t="s" s="620">
         <v>217</v>
       </c>
-      <c r="C104" t="s" s="518">
+      <c r="D104" t="s" s="621">
         <v>7</v>
       </c>
-      <c r="D104" t="s" s="519">
+      <c r="E104" t="s" s="622">
         <v>8</v>
       </c>
-      <c r="E104" t="s" s="520">
+      <c r="F104" t="s" s="623">
         <v>9</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="s" s="521">
+      <c r="A105" s="624">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s" s="625">
         <v>218</v>
       </c>
-      <c r="B105" t="s" s="522">
+      <c r="C105" t="s" s="626">
         <v>219</v>
       </c>
-      <c r="C105" t="s" s="523">
+      <c r="D105" t="s" s="627">
         <v>7</v>
       </c>
-      <c r="D105" t="s" s="524">
+      <c r="E105" t="s" s="628">
         <v>8</v>
       </c>
-      <c r="E105" t="s" s="525">
+      <c r="F105" t="s" s="629">
         <v>9</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="s" s="526">
+      <c r="A106" s="630">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s" s="631">
         <v>220</v>
       </c>
-      <c r="B106" t="s" s="527">
+      <c r="C106" t="s" s="632">
         <v>221</v>
       </c>
-      <c r="C106" t="s" s="528">
+      <c r="D106" t="s" s="633">
         <v>7</v>
       </c>
-      <c r="D106" t="s" s="529">
+      <c r="E106" t="s" s="634">
         <v>8</v>
       </c>
-      <c r="E106" t="s" s="530">
+      <c r="F106" t="s" s="635">
         <v>9</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="s" s="531">
+      <c r="A107" s="636">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s" s="637">
         <v>222</v>
       </c>
-      <c r="B107" t="s" s="532">
+      <c r="C107" t="s" s="638">
         <v>223</v>
       </c>
-      <c r="C107" t="s" s="533">
+      <c r="D107" t="s" s="639">
         <v>7</v>
       </c>
-      <c r="D107" t="s" s="534">
+      <c r="E107" t="s" s="640">
         <v>125</v>
       </c>
-      <c r="E107" t="s" s="535">
+      <c r="F107" t="s" s="641">
         <v>9</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="s" s="536">
+      <c r="A108" s="642">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s" s="643">
         <v>224</v>
       </c>
-      <c r="B108" t="s" s="537">
+      <c r="C108" t="s" s="644">
         <v>225</v>
       </c>
-      <c r="C108" t="s" s="538">
+      <c r="D108" t="s" s="645">
         <v>7</v>
       </c>
-      <c r="D108" t="s" s="539">
+      <c r="E108" t="s" s="646">
         <v>8</v>
       </c>
-      <c r="E108" t="s" s="540">
+      <c r="F108" t="s" s="647">
         <v>9</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="s" s="541">
+      <c r="A109" s="648">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s" s="649">
         <v>226</v>
       </c>
-      <c r="B109" t="s" s="542">
+      <c r="C109" t="s" s="650">
         <v>227</v>
       </c>
-      <c r="C109" t="s" s="543">
+      <c r="D109" t="s" s="651">
         <v>7</v>
       </c>
-      <c r="D109" t="s" s="544">
+      <c r="E109" t="s" s="652">
         <v>8</v>
       </c>
-      <c r="E109" t="s" s="545">
+      <c r="F109" t="s" s="653">
         <v>9</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="s" s="546">
+      <c r="A110" s="654">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s" s="655">
         <v>228</v>
       </c>
-      <c r="B110" t="s" s="547">
+      <c r="C110" t="s" s="656">
         <v>229</v>
       </c>
-      <c r="C110" t="s" s="548">
+      <c r="D110" t="s" s="657">
         <v>7</v>
       </c>
-      <c r="D110" t="s" s="549">
+      <c r="E110" t="s" s="658">
         <v>8</v>
       </c>
-      <c r="E110" t="s" s="550">
+      <c r="F110" t="s" s="659">
         <v>9</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="s" s="551">
+      <c r="A111" s="660">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s" s="661">
         <v>230</v>
       </c>
-      <c r="B111" t="s" s="552">
+      <c r="C111" t="s" s="662">
         <v>231</v>
       </c>
-      <c r="C111" t="s" s="553">
+      <c r="D111" t="s" s="663">
         <v>7</v>
       </c>
-      <c r="D111" t="s" s="554">
+      <c r="E111" t="s" s="664">
         <v>8</v>
       </c>
-      <c r="E111" t="s" s="555">
+      <c r="F111" t="s" s="665">
         <v>9</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="s" s="556">
+      <c r="A112" s="666">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s" s="667">
         <v>232</v>
       </c>
-      <c r="B112" t="s" s="557">
+      <c r="C112" t="s" s="668">
         <v>233</v>
       </c>
-      <c r="C112" t="s" s="558">
+      <c r="D112" t="s" s="669">
         <v>7</v>
       </c>
-      <c r="D112" t="s" s="559">
+      <c r="E112" t="s" s="670">
         <v>8</v>
       </c>
-      <c r="E112" t="s" s="560">
+      <c r="F112" t="s" s="671">
         <v>9</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="s" s="561">
+      <c r="A113" s="672">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s" s="673">
         <v>234</v>
       </c>
-      <c r="B113" t="s" s="562">
+      <c r="C113" t="s" s="674">
         <v>235</v>
       </c>
-      <c r="C113" t="s" s="563">
+      <c r="D113" t="s" s="675">
         <v>7</v>
       </c>
-      <c r="D113" t="s" s="564">
+      <c r="E113" t="s" s="676">
         <v>8</v>
       </c>
-      <c r="E113" t="s" s="565">
+      <c r="F113" t="s" s="677">
         <v>9</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="s" s="566">
+      <c r="A114" s="678">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s" s="679">
         <v>236</v>
       </c>
-      <c r="B114" t="s" s="567">
+      <c r="C114" t="s" s="680">
         <v>237</v>
       </c>
-      <c r="C114" t="s" s="568">
+      <c r="D114" t="s" s="681">
         <v>7</v>
       </c>
-      <c r="D114" t="s" s="569">
+      <c r="E114" t="s" s="682">
         <v>8</v>
       </c>
-      <c r="E114" t="s" s="570">
+      <c r="F114" t="s" s="683">
         <v>9</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="s" s="571">
+      <c r="A115" s="684">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s" s="685">
         <v>238</v>
       </c>
-      <c r="B115" t="s" s="572">
+      <c r="C115" t="s" s="686">
         <v>239</v>
       </c>
-      <c r="C115" t="s" s="573">
+      <c r="D115" t="s" s="687">
         <v>7</v>
       </c>
-      <c r="D115" t="s" s="574">
+      <c r="E115" t="s" s="688">
         <v>8</v>
       </c>
-      <c r="E115" t="s" s="575">
+      <c r="F115" t="s" s="689">
         <v>9</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="s" s="576">
+      <c r="A116" s="690">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s" s="691">
         <v>240</v>
       </c>
-      <c r="B116" t="s" s="577">
+      <c r="C116" t="s" s="692">
         <v>241</v>
       </c>
-      <c r="C116" t="s" s="578">
+      <c r="D116" t="s" s="693">
         <v>7</v>
       </c>
-      <c r="D116" t="s" s="579">
+      <c r="E116" t="s" s="694">
         <v>8</v>
       </c>
-      <c r="E116" t="s" s="580">
+      <c r="F116" t="s" s="695">
         <v>9</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="s" s="581">
+      <c r="A117" s="696">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s" s="697">
         <v>242</v>
       </c>
-      <c r="B117" t="s" s="582">
+      <c r="C117" t="s" s="698">
         <v>243</v>
       </c>
-      <c r="C117" t="s" s="583">
+      <c r="D117" t="s" s="699">
         <v>7</v>
       </c>
-      <c r="D117" t="s" s="584">
+      <c r="E117" t="s" s="700">
         <v>8</v>
       </c>
-      <c r="E117" t="s" s="585">
+      <c r="F117" t="s" s="701">
         <v>9</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="s" s="586">
+      <c r="A118" s="702">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s" s="703">
         <v>244</v>
       </c>
-      <c r="B118" t="s" s="587">
+      <c r="C118" t="s" s="704">
         <v>245</v>
       </c>
-      <c r="C118" t="s" s="588">
+      <c r="D118" t="s" s="705">
         <v>7</v>
       </c>
-      <c r="D118" t="s" s="589">
+      <c r="E118" t="s" s="706">
         <v>8</v>
       </c>
-      <c r="E118" t="s" s="590">
+      <c r="F118" t="s" s="707">
         <v>9</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="s" s="591">
+      <c r="A119" s="708">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s" s="709">
         <v>246</v>
       </c>
-      <c r="B119" t="s" s="592">
+      <c r="C119" t="s" s="710">
         <v>247</v>
       </c>
-      <c r="C119" t="s" s="593">
+      <c r="D119" t="s" s="711">
         <v>7</v>
       </c>
-      <c r="D119" t="s" s="594">
+      <c r="E119" t="s" s="712">
         <v>8</v>
       </c>
-      <c r="E119" t="s" s="595">
+      <c r="F119" t="s" s="713">
         <v>9</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="s" s="596">
+      <c r="A120" s="714">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s" s="715">
         <v>248</v>
       </c>
-      <c r="B120" t="s" s="597">
+      <c r="C120" t="s" s="716">
         <v>249</v>
       </c>
-      <c r="C120" t="s" s="598">
+      <c r="D120" t="s" s="717">
         <v>7</v>
       </c>
-      <c r="D120" t="s" s="599">
+      <c r="E120" t="s" s="718">
         <v>8</v>
       </c>
-      <c r="E120" t="s" s="600">
+      <c r="F120" t="s" s="719">
         <v>9</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="s" s="601">
+      <c r="A121" s="720">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s" s="721">
         <v>250</v>
       </c>
-      <c r="B121" t="s" s="602">
+      <c r="C121" t="s" s="722">
         <v>251</v>
       </c>
-      <c r="C121" t="s" s="603">
+      <c r="D121" t="s" s="723">
         <v>7</v>
       </c>
-      <c r="D121" t="s" s="604">
+      <c r="E121" t="s" s="724">
         <v>53</v>
       </c>
-      <c r="E121" t="s" s="605">
+      <c r="F121" t="s" s="725">
         <v>9</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="s" s="606">
+      <c r="A122" s="726">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s" s="727">
         <v>252</v>
       </c>
-      <c r="B122" t="s" s="607">
+      <c r="C122" t="s" s="728">
         <v>253</v>
       </c>
-      <c r="C122" t="s" s="608">
+      <c r="D122" t="s" s="729">
         <v>7</v>
       </c>
-      <c r="D122" t="s" s="609">
+      <c r="E122" t="s" s="730">
         <v>8</v>
       </c>
-      <c r="E122" t="s" s="610">
+      <c r="F122" t="s" s="731">
         <v>9</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="s" s="611">
+      <c r="A123" s="732">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s" s="733">
         <v>254</v>
       </c>
-      <c r="B123" t="s" s="612">
+      <c r="C123" t="s" s="734">
         <v>255</v>
       </c>
-      <c r="C123" t="s" s="613">
+      <c r="D123" t="s" s="735">
         <v>7</v>
       </c>
-      <c r="D123" t="s" s="614">
+      <c r="E123" t="s" s="736">
         <v>8</v>
       </c>
-      <c r="E123" t="s" s="615">
+      <c r="F123" t="s" s="737">
         <v>9</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="s" s="616">
+      <c r="A124" s="738">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s" s="739">
         <v>256</v>
       </c>
-      <c r="B124" t="s" s="617">
+      <c r="C124" t="s" s="740">
         <v>257</v>
       </c>
-      <c r="C124" t="s" s="618">
+      <c r="D124" t="s" s="741">
         <v>7</v>
       </c>
-      <c r="D124" t="s" s="619">
+      <c r="E124" t="s" s="742">
         <v>8</v>
       </c>
-      <c r="E124" t="s" s="620">
+      <c r="F124" t="s" s="743">
         <v>9</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="s" s="621">
+      <c r="A125" s="744">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s" s="745">
         <v>258</v>
       </c>
-      <c r="B125" t="s" s="622">
+      <c r="C125" t="s" s="746">
         <v>259</v>
       </c>
-      <c r="C125" t="s" s="623">
+      <c r="D125" t="s" s="747">
         <v>7</v>
       </c>
-      <c r="D125" t="s" s="624">
+      <c r="E125" t="s" s="748">
         <v>8</v>
       </c>
-      <c r="E125" t="s" s="625">
+      <c r="F125" t="s" s="749">
         <v>9</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="s" s="626">
+      <c r="A126" s="750">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s" s="751">
         <v>260</v>
       </c>
-      <c r="B126" t="s" s="627">
+      <c r="C126" t="s" s="752">
         <v>261</v>
       </c>
-      <c r="C126" t="s" s="628">
+      <c r="D126" t="s" s="753">
         <v>7</v>
       </c>
-      <c r="D126" t="s" s="629">
+      <c r="E126" t="s" s="754">
         <v>8</v>
       </c>
-      <c r="E126" t="s" s="630">
+      <c r="F126" t="s" s="755">
         <v>9</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="s" s="631">
+      <c r="A127" s="756">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s" s="757">
         <v>262</v>
       </c>
-      <c r="B127" t="s" s="632">
+      <c r="C127" t="s" s="758">
         <v>263</v>
       </c>
-      <c r="C127" t="s" s="633">
+      <c r="D127" t="s" s="759">
         <v>7</v>
       </c>
-      <c r="D127" t="s" s="634">
+      <c r="E127" t="s" s="760">
         <v>8</v>
       </c>
-      <c r="E127" t="s" s="635">
+      <c r="F127" t="s" s="761">
         <v>9</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="s" s="636">
+      <c r="A128" s="762">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s" s="763">
         <v>264</v>
       </c>
-      <c r="B128" t="s" s="637">
+      <c r="C128" t="s" s="764">
         <v>265</v>
       </c>
-      <c r="C128" t="s" s="638">
+      <c r="D128" t="s" s="765">
         <v>7</v>
       </c>
-      <c r="D128" t="s" s="639">
+      <c r="E128" t="s" s="766">
         <v>8</v>
       </c>
-      <c r="E128" t="s" s="640">
+      <c r="F128" t="s" s="767">
         <v>9</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="s" s="641">
+      <c r="A129" s="768">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s" s="769">
         <v>266</v>
       </c>
-      <c r="B129" t="s" s="642">
+      <c r="C129" t="s" s="770">
         <v>267</v>
       </c>
-      <c r="C129" t="s" s="643">
+      <c r="D129" t="s" s="771">
         <v>7</v>
       </c>
-      <c r="D129" t="s" s="644">
+      <c r="E129" t="s" s="772">
         <v>8</v>
       </c>
-      <c r="E129" t="s" s="645">
+      <c r="F129" t="s" s="773">
         <v>9</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="s" s="646">
+      <c r="A130" s="774">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s" s="775">
         <v>268</v>
       </c>
-      <c r="B130" t="s" s="647">
+      <c r="C130" t="s" s="776">
         <v>269</v>
       </c>
-      <c r="C130" t="s" s="648">
+      <c r="D130" t="s" s="777">
         <v>7</v>
       </c>
-      <c r="D130" t="s" s="649">
+      <c r="E130" t="s" s="778">
         <v>8</v>
       </c>
-      <c r="E130" t="s" s="650">
+      <c r="F130" t="s" s="779">
         <v>9</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="s" s="651">
+      <c r="A131" s="780">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s" s="781">
         <v>270</v>
       </c>
-      <c r="B131" t="s" s="652">
+      <c r="C131" t="s" s="782">
         <v>271</v>
       </c>
-      <c r="C131" t="s" s="653">
+      <c r="D131" t="s" s="783">
         <v>7</v>
       </c>
-      <c r="D131" t="s" s="654">
+      <c r="E131" t="s" s="784">
         <v>8</v>
       </c>
-      <c r="E131" t="s" s="655">
+      <c r="F131" t="s" s="785">
         <v>9</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="s" s="656">
+      <c r="A132" s="786">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s" s="787">
         <v>272</v>
       </c>
-      <c r="B132" t="s" s="657">
+      <c r="C132" t="s" s="788">
         <v>273</v>
       </c>
-      <c r="C132" t="s" s="658">
+      <c r="D132" t="s" s="789">
         <v>7</v>
       </c>
-      <c r="D132" t="s" s="659">
+      <c r="E132" t="s" s="790">
         <v>8</v>
       </c>
-      <c r="E132" t="s" s="660">
+      <c r="F132" t="s" s="791">
         <v>9</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="s" s="661">
+      <c r="A133" s="792">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s" s="793">
         <v>274</v>
       </c>
-      <c r="B133" t="s" s="662">
+      <c r="C133" t="s" s="794">
         <v>275</v>
       </c>
-      <c r="C133" t="s" s="663">
+      <c r="D133" t="s" s="795">
         <v>7</v>
       </c>
-      <c r="D133" t="s" s="664">
+      <c r="E133" t="s" s="796">
         <v>8</v>
       </c>
-      <c r="E133" t="s" s="665">
+      <c r="F133" t="s" s="797">
         <v>9</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="s" s="666">
+      <c r="A134" s="798">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s" s="799">
         <v>276</v>
       </c>
-      <c r="B134" t="s" s="667">
+      <c r="C134" t="s" s="800">
         <v>277</v>
       </c>
-      <c r="C134" t="s" s="668">
+      <c r="D134" t="s" s="801">
         <v>7</v>
       </c>
-      <c r="D134" t="s" s="669">
+      <c r="E134" t="s" s="802">
         <v>8</v>
       </c>
-      <c r="E134" t="s" s="670">
+      <c r="F134" t="s" s="803">
         <v>9</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="s" s="671">
+      <c r="A135" s="804">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s" s="805">
         <v>278</v>
       </c>
-      <c r="B135" t="s" s="672">
+      <c r="C135" t="s" s="806">
         <v>279</v>
       </c>
-      <c r="C135" t="s" s="673">
+      <c r="D135" t="s" s="807">
         <v>7</v>
       </c>
-      <c r="D135" t="s" s="674">
+      <c r="E135" t="s" s="808">
         <v>8</v>
       </c>
-      <c r="E135" t="s" s="675">
+      <c r="F135" t="s" s="809">
         <v>9</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="s" s="676">
+      <c r="A136" s="810">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s" s="811">
         <v>280</v>
       </c>
-      <c r="B136" t="s" s="677">
+      <c r="C136" t="s" s="812">
         <v>281</v>
       </c>
-      <c r="C136" t="s" s="678">
+      <c r="D136" t="s" s="813">
         <v>7</v>
       </c>
-      <c r="D136" t="s" s="679">
+      <c r="E136" t="s" s="814">
         <v>8</v>
       </c>
-      <c r="E136" t="s" s="680">
+      <c r="F136" t="s" s="815">
         <v>9</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="s" s="681">
+      <c r="A137" s="816">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s" s="817">
         <v>282</v>
       </c>
-      <c r="B137" t="s" s="682">
+      <c r="C137" t="s" s="818">
         <v>283</v>
       </c>
-      <c r="C137" t="s" s="683">
+      <c r="D137" t="s" s="819">
         <v>7</v>
       </c>
-      <c r="D137" t="s" s="684">
+      <c r="E137" t="s" s="820">
         <v>8</v>
       </c>
-      <c r="E137" t="s" s="685">
+      <c r="F137" t="s" s="821">
         <v>9</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="s" s="686">
+      <c r="A138" s="822">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s" s="823">
         <v>284</v>
       </c>
-      <c r="B138" t="s" s="687">
+      <c r="C138" t="s" s="824">
         <v>285</v>
       </c>
-      <c r="C138" t="s" s="688">
+      <c r="D138" t="s" s="825">
         <v>7</v>
       </c>
-      <c r="D138" t="s" s="689">
+      <c r="E138" t="s" s="826">
         <v>8</v>
       </c>
-      <c r="E138" t="s" s="690">
+      <c r="F138" t="s" s="827">
         <v>9</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="s" s="691">
+      <c r="A139" s="828">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s" s="829">
         <v>286</v>
       </c>
-      <c r="B139" t="s" s="692">
+      <c r="C139" t="s" s="830">
         <v>287</v>
       </c>
-      <c r="C139" t="s" s="693">
+      <c r="D139" t="s" s="831">
         <v>7</v>
       </c>
-      <c r="D139" t="s" s="694">
+      <c r="E139" t="s" s="832">
         <v>288</v>
       </c>
-      <c r="E139" t="s" s="695">
+      <c r="F139" t="s" s="833">
         <v>9</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="s" s="696">
+      <c r="A140" s="834">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s" s="835">
         <v>289</v>
       </c>
-      <c r="B140" t="s" s="697">
+      <c r="C140" t="s" s="836">
         <v>290</v>
       </c>
-      <c r="C140" t="s" s="698">
+      <c r="D140" t="s" s="837">
         <v>7</v>
       </c>
-      <c r="D140" t="s" s="699">
+      <c r="E140" t="s" s="838">
         <v>8</v>
       </c>
-      <c r="E140" t="s" s="700">
+      <c r="F140" t="s" s="839">
         <v>9</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="s" s="701">
+      <c r="A141" s="840">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s" s="841">
         <v>291</v>
       </c>
-      <c r="B141" t="s" s="702">
+      <c r="C141" t="s" s="842">
         <v>292</v>
       </c>
-      <c r="C141" t="s" s="703">
+      <c r="D141" t="s" s="843">
         <v>7</v>
       </c>
-      <c r="D141" t="s" s="704">
+      <c r="E141" t="s" s="844">
         <v>8</v>
       </c>
-      <c r="E141" t="s" s="705">
+      <c r="F141" t="s" s="845">
         <v>9</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="s" s="706">
+      <c r="A142" s="846">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s" s="847">
         <v>293</v>
       </c>
-      <c r="B142" t="s" s="707">
+      <c r="C142" t="s" s="848">
         <v>294</v>
       </c>
-      <c r="C142" t="s" s="708">
+      <c r="D142" t="s" s="849">
         <v>7</v>
       </c>
-      <c r="D142" t="s" s="709">
+      <c r="E142" t="s" s="850">
         <v>8</v>
       </c>
-      <c r="E142" t="s" s="710">
+      <c r="F142" t="s" s="851">
         <v>9</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="s" s="711">
+      <c r="A143" s="852">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s" s="853">
         <v>295</v>
       </c>
-      <c r="B143" t="s" s="712">
+      <c r="C143" t="s" s="854">
         <v>296</v>
       </c>
-      <c r="C143" t="s" s="713">
+      <c r="D143" t="s" s="855">
         <v>7</v>
       </c>
-      <c r="D143" t="s" s="714">
+      <c r="E143" t="s" s="856">
         <v>8</v>
       </c>
-      <c r="E143" t="s" s="715">
+      <c r="F143" t="s" s="857">
         <v>9</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="s" s="716">
+      <c r="A144" s="858">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s" s="859">
         <v>297</v>
       </c>
-      <c r="B144" t="s" s="717">
+      <c r="C144" t="s" s="860">
         <v>298</v>
       </c>
-      <c r="C144" t="s" s="718">
+      <c r="D144" t="s" s="861">
         <v>7</v>
       </c>
-      <c r="D144" t="s" s="719">
+      <c r="E144" t="s" s="862">
         <v>8</v>
       </c>
-      <c r="E144" t="s" s="720">
+      <c r="F144" t="s" s="863">
         <v>9</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="s" s="721">
+      <c r="A145" s="864">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s" s="865">
         <v>299</v>
       </c>
-      <c r="B145" t="s" s="722">
+      <c r="C145" t="s" s="866">
         <v>300</v>
       </c>
-      <c r="C145" t="s" s="723">
+      <c r="D145" t="s" s="867">
         <v>7</v>
       </c>
-      <c r="D145" t="s" s="724">
+      <c r="E145" t="s" s="868">
         <v>8</v>
       </c>
-      <c r="E145" t="s" s="725">
+      <c r="F145" t="s" s="869">
         <v>9</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="s" s="726">
+      <c r="A146" s="870">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s" s="871">
         <v>301</v>
       </c>
-      <c r="B146" t="s" s="727">
+      <c r="C146" t="s" s="872">
         <v>302</v>
       </c>
-      <c r="C146" t="s" s="728">
+      <c r="D146" t="s" s="873">
         <v>7</v>
       </c>
-      <c r="D146" t="s" s="729">
+      <c r="E146" t="s" s="874">
         <v>8</v>
       </c>
-      <c r="E146" t="s" s="730">
+      <c r="F146" t="s" s="875">
         <v>9</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="s" s="731">
+      <c r="A147" s="876">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s" s="877">
         <v>303</v>
       </c>
-      <c r="B147" t="s" s="732">
+      <c r="C147" t="s" s="878">
         <v>304</v>
       </c>
-      <c r="C147" t="s" s="733">
+      <c r="D147" t="s" s="879">
         <v>7</v>
       </c>
-      <c r="D147" t="s" s="734">
+      <c r="E147" t="s" s="880">
         <v>8</v>
       </c>
-      <c r="E147" t="s" s="735">
+      <c r="F147" t="s" s="881">
         <v>9</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="s" s="736">
+      <c r="A148" s="882">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s" s="883">
         <v>305</v>
       </c>
-      <c r="B148" t="s" s="737">
+      <c r="C148" t="s" s="884">
         <v>306</v>
       </c>
-      <c r="C148" t="s" s="738">
+      <c r="D148" t="s" s="885">
         <v>7</v>
       </c>
-      <c r="D148" t="s" s="739">
+      <c r="E148" t="s" s="886">
         <v>8</v>
       </c>
-      <c r="E148" t="s" s="740">
+      <c r="F148" t="s" s="887">
         <v>9</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="s" s="741">
+      <c r="A149" s="888">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s" s="889">
         <v>307</v>
       </c>
-      <c r="B149" t="s" s="742">
+      <c r="C149" t="s" s="890">
         <v>308</v>
       </c>
-      <c r="C149" t="s" s="743">
+      <c r="D149" t="s" s="891">
         <v>7</v>
       </c>
-      <c r="D149" t="s" s="744">
+      <c r="E149" t="s" s="892">
         <v>34</v>
       </c>
-      <c r="E149" t="s" s="745">
+      <c r="F149" t="s" s="893">
         <v>9</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="s" s="746">
+      <c r="A150" s="894">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s" s="895">
         <v>309</v>
       </c>
-      <c r="B150" t="s" s="747">
+      <c r="C150" t="s" s="896">
         <v>310</v>
       </c>
-      <c r="C150" t="s" s="748">
+      <c r="D150" t="s" s="897">
         <v>7</v>
       </c>
-      <c r="D150" t="s" s="749">
+      <c r="E150" t="s" s="898">
         <v>8</v>
       </c>
-      <c r="E150" t="s" s="750">
+      <c r="F150" t="s" s="899">
         <v>9</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="s" s="751">
+      <c r="A151" s="900">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s" s="901">
         <v>311</v>
       </c>
-      <c r="B151" t="s" s="752">
+      <c r="C151" t="s" s="902">
         <v>312</v>
       </c>
-      <c r="C151" t="s" s="753">
+      <c r="D151" t="s" s="903">
         <v>7</v>
       </c>
-      <c r="D151" t="s" s="754">
+      <c r="E151" t="s" s="904">
         <v>8</v>
       </c>
-      <c r="E151" t="s" s="755">
+      <c r="F151" t="s" s="905">
         <v>9</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="s" s="756">
+      <c r="A152" s="906">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s" s="907">
         <v>313</v>
       </c>
-      <c r="B152" t="s" s="757">
+      <c r="C152" t="s" s="908">
         <v>314</v>
       </c>
-      <c r="C152" t="s" s="758">
+      <c r="D152" t="s" s="909">
         <v>7</v>
       </c>
-      <c r="D152" t="s" s="759">
+      <c r="E152" t="s" s="910">
         <v>8</v>
       </c>
-      <c r="E152" t="s" s="760">
+      <c r="F152" t="s" s="911">
         <v>9</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="s" s="761">
+      <c r="A153" s="912">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s" s="913">
         <v>315</v>
       </c>
-      <c r="B153" t="s" s="762">
+      <c r="C153" t="s" s="914">
         <v>316</v>
       </c>
-      <c r="C153" t="s" s="763">
+      <c r="D153" t="s" s="915">
         <v>7</v>
       </c>
-      <c r="D153" t="s" s="764">
+      <c r="E153" t="s" s="916">
         <v>8</v>
       </c>
-      <c r="E153" t="s" s="765">
+      <c r="F153" t="s" s="917">
         <v>9</v>
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="s" s="766">
+      <c r="A154" s="918">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s" s="919">
         <v>317</v>
       </c>
-      <c r="B154" t="s" s="767">
+      <c r="C154" t="s" s="920">
         <v>318</v>
       </c>
-      <c r="C154" t="s" s="768">
+      <c r="D154" t="s" s="921">
         <v>7</v>
       </c>
-      <c r="D154" t="s" s="769">
+      <c r="E154" t="s" s="922">
         <v>34</v>
       </c>
-      <c r="E154" t="s" s="770">
+      <c r="F154" t="s" s="923">
         <v>9</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="s" s="771">
+      <c r="A155" s="924">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s" s="925">
         <v>319</v>
       </c>
-      <c r="B155" t="s" s="772">
+      <c r="C155" t="s" s="926">
         <v>320</v>
       </c>
-      <c r="C155" t="s" s="773">
+      <c r="D155" t="s" s="927">
         <v>7</v>
       </c>
-      <c r="D155" t="s" s="774">
+      <c r="E155" t="s" s="928">
         <v>8</v>
       </c>
-      <c r="E155" t="s" s="775">
+      <c r="F155" t="s" s="929">
         <v>9</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="s" s="776">
+      <c r="A156" s="930">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s" s="931">
         <v>321</v>
       </c>
-      <c r="B156" t="s" s="777">
+      <c r="C156" t="s" s="932">
         <v>322</v>
       </c>
-      <c r="C156" t="s" s="778">
+      <c r="D156" t="s" s="933">
         <v>7</v>
       </c>
-      <c r="D156" t="s" s="779">
+      <c r="E156" t="s" s="934">
         <v>8</v>
       </c>
-      <c r="E156" t="s" s="780">
+      <c r="F156" t="s" s="935">
         <v>9</v>
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="s" s="781">
+      <c r="A157" s="936">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s" s="937">
         <v>323</v>
       </c>
-      <c r="B157" t="s" s="782">
+      <c r="C157" t="s" s="938">
         <v>324</v>
       </c>
-      <c r="C157" t="s" s="783">
+      <c r="D157" t="s" s="939">
         <v>7</v>
       </c>
-      <c r="D157" t="s" s="784">
+      <c r="E157" t="s" s="940">
         <v>8</v>
       </c>
-      <c r="E157" t="s" s="785">
+      <c r="F157" t="s" s="941">
         <v>9</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="s" s="786">
+      <c r="A158" s="942">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s" s="943">
         <v>325</v>
       </c>
-      <c r="B158" t="s" s="787">
+      <c r="C158" t="s" s="944">
         <v>326</v>
       </c>
-      <c r="C158" t="s" s="788">
+      <c r="D158" t="s" s="945">
         <v>7</v>
       </c>
-      <c r="D158" t="s" s="789">
+      <c r="E158" t="s" s="946">
         <v>8</v>
       </c>
-      <c r="E158" t="s" s="790">
+      <c r="F158" t="s" s="947">
         <v>9</v>
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="s" s="791">
+      <c r="A159" s="948">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s" s="949">
         <v>327</v>
       </c>
-      <c r="B159" t="s" s="792">
+      <c r="C159" t="s" s="950">
         <v>328</v>
       </c>
-      <c r="C159" t="s" s="793">
+      <c r="D159" t="s" s="951">
         <v>7</v>
       </c>
-      <c r="D159" t="s" s="794">
+      <c r="E159" t="s" s="952">
         <v>8</v>
       </c>
-      <c r="E159" t="s" s="795">
+      <c r="F159" t="s" s="953">
         <v>9</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="s" s="796">
+      <c r="A160" s="954">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s" s="955">
         <v>329</v>
       </c>
-      <c r="B160" t="s" s="797">
+      <c r="C160" t="s" s="956">
         <v>330</v>
       </c>
-      <c r="C160" t="s" s="798">
+      <c r="D160" t="s" s="957">
         <v>7</v>
       </c>
-      <c r="D160" t="s" s="799">
+      <c r="E160" t="s" s="958">
         <v>8</v>
       </c>
-      <c r="E160" t="s" s="800">
+      <c r="F160" t="s" s="959">
         <v>9</v>
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="s" s="801">
+      <c r="A161" s="960">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s" s="961">
         <v>331</v>
       </c>
-      <c r="B161" t="s" s="802">
+      <c r="C161" t="s" s="962">
         <v>332</v>
       </c>
-      <c r="C161" t="s" s="803">
+      <c r="D161" t="s" s="963">
         <v>7</v>
       </c>
-      <c r="D161" t="s" s="804">
+      <c r="E161" t="s" s="964">
         <v>8</v>
       </c>
-      <c r="E161" t="s" s="805">
+      <c r="F161" t="s" s="965">
         <v>9</v>
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="s" s="806">
+      <c r="A162" s="966">
+        <v>161</v>
+      </c>
+      <c r="B162" t="s" s="967">
         <v>333</v>
       </c>
-      <c r="B162" t="s" s="807">
+      <c r="C162" t="s" s="968">
         <v>334</v>
       </c>
-      <c r="C162" t="s" s="808">
+      <c r="D162" t="s" s="969">
         <v>7</v>
       </c>
-      <c r="D162" t="s" s="809">
+      <c r="E162" t="s" s="970">
         <v>8</v>
       </c>
-      <c r="E162" t="s" s="810">
+      <c r="F162" t="s" s="971">
         <v>9</v>
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="s" s="811">
+      <c r="A163" s="972">
+        <v>162</v>
+      </c>
+      <c r="B163" t="s" s="973">
         <v>335</v>
       </c>
-      <c r="B163" t="s" s="812">
+      <c r="C163" t="s" s="974">
         <v>336</v>
       </c>
-      <c r="C163" t="s" s="813">
+      <c r="D163" t="s" s="975">
         <v>7</v>
       </c>
-      <c r="D163" t="s" s="814">
+      <c r="E163" t="s" s="976">
         <v>8</v>
       </c>
-      <c r="E163" t="s" s="815">
+      <c r="F163" t="s" s="977">
         <v>9</v>
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="s" s="816">
+      <c r="A164" s="978">
+        <v>163</v>
+      </c>
+      <c r="B164" t="s" s="979">
         <v>337</v>
       </c>
-      <c r="B164" t="s" s="817">
+      <c r="C164" t="s" s="980">
         <v>338</v>
       </c>
-      <c r="C164" t="s" s="818">
+      <c r="D164" t="s" s="981">
         <v>7</v>
       </c>
-      <c r="D164" t="s" s="819">
+      <c r="E164" t="s" s="982">
         <v>8</v>
       </c>
-      <c r="E164" t="s" s="820">
+      <c r="F164" t="s" s="983">
         <v>9</v>
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="s" s="821">
+      <c r="A165" s="984">
+        <v>164</v>
+      </c>
+      <c r="B165" t="s" s="985">
         <v>339</v>
       </c>
-      <c r="B165" t="s" s="822">
+      <c r="C165" t="s" s="986">
         <v>340</v>
       </c>
-      <c r="C165" t="s" s="823">
+      <c r="D165" t="s" s="987">
         <v>7</v>
       </c>
-      <c r="D165" t="s" s="824">
+      <c r="E165" t="s" s="988">
         <v>8</v>
       </c>
-      <c r="E165" t="s" s="825">
+      <c r="F165" t="s" s="989">
         <v>9</v>
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="s" s="826">
+      <c r="A166" s="990">
+        <v>165</v>
+      </c>
+      <c r="B166" t="s" s="991">
         <v>341</v>
       </c>
-      <c r="B166" t="s" s="827">
+      <c r="C166" t="s" s="992">
         <v>342</v>
       </c>
-      <c r="C166" t="s" s="828">
+      <c r="D166" t="s" s="993">
         <v>7</v>
       </c>
-      <c r="D166" t="s" s="829">
+      <c r="E166" t="s" s="994">
         <v>53</v>
       </c>
-      <c r="E166" t="s" s="830">
+      <c r="F166" t="s" s="995">
         <v>9</v>
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="s" s="831">
+      <c r="A167" s="996">
+        <v>166</v>
+      </c>
+      <c r="B167" t="s" s="997">
         <v>343</v>
       </c>
-      <c r="B167" t="s" s="832">
+      <c r="C167" t="s" s="998">
         <v>344</v>
       </c>
-      <c r="C167" t="s" s="833">
+      <c r="D167" t="s" s="999">
         <v>7</v>
       </c>
-      <c r="D167" t="s" s="834">
+      <c r="E167" t="s" s="1000">
         <v>8</v>
       </c>
-      <c r="E167" t="s" s="835">
+      <c r="F167" t="s" s="1001">
         <v>9</v>
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="s" s="836">
+      <c r="A168" s="1002">
+        <v>167</v>
+      </c>
+      <c r="B168" t="s" s="1003">
         <v>345</v>
       </c>
-      <c r="B168" t="s" s="837">
+      <c r="C168" t="s" s="1004">
         <v>346</v>
       </c>
-      <c r="C168" t="s" s="838">
+      <c r="D168" t="s" s="1005">
         <v>7</v>
       </c>
-      <c r="D168" t="s" s="839">
+      <c r="E168" t="s" s="1006">
         <v>8</v>
       </c>
-      <c r="E168" t="s" s="840">
+      <c r="F168" t="s" s="1007">
         <v>9</v>
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="s" s="841">
+      <c r="A169" s="1008">
+        <v>168</v>
+      </c>
+      <c r="B169" t="s" s="1009">
         <v>347</v>
       </c>
-      <c r="B169" t="s" s="842">
+      <c r="C169" t="s" s="1010">
         <v>348</v>
       </c>
-      <c r="C169" t="s" s="843">
+      <c r="D169" t="s" s="1011">
         <v>7</v>
       </c>
-      <c r="D169" t="s" s="844">
+      <c r="E169" t="s" s="1012">
         <v>8</v>
       </c>
-      <c r="E169" t="s" s="845">
+      <c r="F169" t="s" s="1013">
         <v>9</v>
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="s" s="846">
+      <c r="A170" s="1014">
+        <v>169</v>
+      </c>
+      <c r="B170" t="s" s="1015">
         <v>349</v>
       </c>
-      <c r="B170" t="s" s="847">
+      <c r="C170" t="s" s="1016">
         <v>350</v>
       </c>
-      <c r="C170" t="s" s="848">
+      <c r="D170" t="s" s="1017">
         <v>7</v>
       </c>
-      <c r="D170" t="s" s="849">
+      <c r="E170" t="s" s="1018">
         <v>8</v>
       </c>
-      <c r="E170" t="s" s="850">
+      <c r="F170" t="s" s="1019">
         <v>9</v>
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="s" s="851">
+      <c r="A171" s="1020">
+        <v>170</v>
+      </c>
+      <c r="B171" t="s" s="1021">
         <v>351</v>
       </c>
-      <c r="B171" t="s" s="852">
+      <c r="C171" t="s" s="1022">
         <v>352</v>
       </c>
-      <c r="C171" t="s" s="853">
+      <c r="D171" t="s" s="1023">
         <v>7</v>
       </c>
-      <c r="D171" t="s" s="854">
+      <c r="E171" t="s" s="1024">
         <v>8</v>
       </c>
-      <c r="E171" t="s" s="855">
+      <c r="F171" t="s" s="1025">
         <v>9</v>
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="s" s="856">
+      <c r="A172" s="1026">
+        <v>171</v>
+      </c>
+      <c r="B172" t="s" s="1027">
         <v>353</v>
       </c>
-      <c r="B172" t="s" s="857">
+      <c r="C172" t="s" s="1028">
         <v>354</v>
       </c>
-      <c r="C172" t="s" s="858">
+      <c r="D172" t="s" s="1029">
         <v>7</v>
       </c>
-      <c r="D172" t="s" s="859">
+      <c r="E172" t="s" s="1030">
         <v>8</v>
       </c>
-      <c r="E172" t="s" s="860">
+      <c r="F172" t="s" s="1031">
         <v>9</v>
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="s" s="861">
+      <c r="A173" s="1032">
+        <v>172</v>
+      </c>
+      <c r="B173" t="s" s="1033">
         <v>355</v>
       </c>
-      <c r="B173" t="s" s="862">
+      <c r="C173" t="s" s="1034">
         <v>356</v>
       </c>
-      <c r="C173" t="s" s="863">
+      <c r="D173" t="s" s="1035">
         <v>7</v>
       </c>
-      <c r="D173" t="s" s="864">
+      <c r="E173" t="s" s="1036">
         <v>8</v>
       </c>
-      <c r="E173" t="s" s="865">
+      <c r="F173" t="s" s="1037">
         <v>9</v>
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="s" s="866">
+      <c r="A174" s="1038">
+        <v>173</v>
+      </c>
+      <c r="B174" t="s" s="1039">
         <v>357</v>
       </c>
-      <c r="B174" t="s" s="867">
+      <c r="C174" t="s" s="1040">
         <v>358</v>
       </c>
-      <c r="C174" t="s" s="868">
+      <c r="D174" t="s" s="1041">
         <v>7</v>
       </c>
-      <c r="D174" t="s" s="869">
+      <c r="E174" t="s" s="1042">
         <v>8</v>
       </c>
-      <c r="E174" t="s" s="870">
+      <c r="F174" t="s" s="1043">
         <v>9</v>
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="s" s="871">
+      <c r="A175" s="1044">
+        <v>174</v>
+      </c>
+      <c r="B175" t="s" s="1045">
         <v>359</v>
       </c>
-      <c r="B175" t="s" s="872">
+      <c r="C175" t="s" s="1046">
         <v>360</v>
       </c>
-      <c r="C175" t="s" s="873">
+      <c r="D175" t="s" s="1047">
         <v>7</v>
       </c>
-      <c r="D175" t="s" s="874">
+      <c r="E175" t="s" s="1048">
         <v>8</v>
       </c>
-      <c r="E175" t="s" s="875">
+      <c r="F175" t="s" s="1049">
         <v>9</v>
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="s" s="876">
+      <c r="A176" s="1050">
+        <v>175</v>
+      </c>
+      <c r="B176" t="s" s="1051">
         <v>361</v>
       </c>
-      <c r="B176" t="s" s="877">
+      <c r="C176" t="s" s="1052">
         <v>362</v>
       </c>
-      <c r="C176" t="s" s="878">
+      <c r="D176" t="s" s="1053">
         <v>7</v>
       </c>
-      <c r="D176" t="s" s="879">
+      <c r="E176" t="s" s="1054">
         <v>8</v>
       </c>
-      <c r="E176" t="s" s="880">
+      <c r="F176" t="s" s="1055">
         <v>9</v>
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="s" s="881">
+      <c r="A177" s="1056">
+        <v>176</v>
+      </c>
+      <c r="B177" t="s" s="1057">
         <v>363</v>
       </c>
-      <c r="B177" t="s" s="882">
+      <c r="C177" t="s" s="1058">
         <v>364</v>
       </c>
-      <c r="C177" t="s" s="883">
+      <c r="D177" t="s" s="1059">
         <v>7</v>
       </c>
-      <c r="D177" t="s" s="884">
+      <c r="E177" t="s" s="1060">
         <v>8</v>
       </c>
-      <c r="E177" t="s" s="885">
+      <c r="F177" t="s" s="1061">
         <v>9</v>
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="s" s="886">
+      <c r="A178" s="1062">
+        <v>177</v>
+      </c>
+      <c r="B178" t="s" s="1063">
         <v>365</v>
       </c>
-      <c r="B178" t="s" s="887">
+      <c r="C178" t="s" s="1064">
         <v>366</v>
       </c>
-      <c r="C178" t="s" s="888">
+      <c r="D178" t="s" s="1065">
         <v>7</v>
       </c>
-      <c r="D178" t="s" s="889">
+      <c r="E178" t="s" s="1066">
         <v>8</v>
       </c>
-      <c r="E178" t="s" s="890">
+      <c r="F178" t="s" s="1067">
         <v>9</v>
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="s" s="891">
+      <c r="A179" s="1068">
+        <v>178</v>
+      </c>
+      <c r="B179" t="s" s="1069">
         <v>367</v>
       </c>
-      <c r="B179" t="s" s="892">
+      <c r="C179" t="s" s="1070">
         <v>368</v>
       </c>
-      <c r="C179" t="s" s="893">
+      <c r="D179" t="s" s="1071">
         <v>7</v>
       </c>
-      <c r="D179" t="s" s="894">
+      <c r="E179" t="s" s="1072">
         <v>8</v>
       </c>
-      <c r="E179" t="s" s="895">
+      <c r="F179" t="s" s="1073">
         <v>9</v>
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="s" s="896">
+      <c r="A180" s="1074">
+        <v>179</v>
+      </c>
+      <c r="B180" t="s" s="1075">
         <v>369</v>
       </c>
-      <c r="B180" t="s" s="897">
+      <c r="C180" t="s" s="1076">
         <v>370</v>
       </c>
-      <c r="C180" t="s" s="898">
+      <c r="D180" t="s" s="1077">
         <v>7</v>
       </c>
-      <c r="D180" t="s" s="899">
+      <c r="E180" t="s" s="1078">
         <v>8</v>
       </c>
-      <c r="E180" t="s" s="900">
+      <c r="F180" t="s" s="1079">
         <v>9</v>
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="s" s="901">
+      <c r="A181" s="1080">
+        <v>180</v>
+      </c>
+      <c r="B181" t="s" s="1081">
         <v>371</v>
       </c>
-      <c r="B181" t="s" s="902">
+      <c r="C181" t="s" s="1082">
         <v>372</v>
       </c>
-      <c r="C181" t="s" s="903">
+      <c r="D181" t="s" s="1083">
         <v>7</v>
       </c>
-      <c r="D181" t="s" s="904">
+      <c r="E181" t="s" s="1084">
         <v>8</v>
       </c>
-      <c r="E181" t="s" s="905">
+      <c r="F181" t="s" s="1085">
         <v>9</v>
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="s" s="906">
+      <c r="A182" s="1086">
+        <v>181</v>
+      </c>
+      <c r="B182" t="s" s="1087">
         <v>373</v>
       </c>
-      <c r="B182" t="s" s="907">
+      <c r="C182" t="s" s="1088">
         <v>374</v>
       </c>
-      <c r="C182" t="s" s="908">
+      <c r="D182" t="s" s="1089">
         <v>7</v>
       </c>
-      <c r="D182" t="s" s="909">
+      <c r="E182" t="s" s="1090">
         <v>8</v>
       </c>
-      <c r="E182" t="s" s="910">
+      <c r="F182" t="s" s="1091">
         <v>9</v>
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="s" s="911">
+      <c r="A183" s="1092">
+        <v>182</v>
+      </c>
+      <c r="B183" t="s" s="1093">
         <v>375</v>
       </c>
-      <c r="B183" t="s" s="912">
+      <c r="C183" t="s" s="1094">
         <v>376</v>
       </c>
-      <c r="C183" t="s" s="913">
+      <c r="D183" t="s" s="1095">
         <v>7</v>
       </c>
-      <c r="D183" t="s" s="914">
+      <c r="E183" t="s" s="1096">
         <v>8</v>
       </c>
-      <c r="E183" t="s" s="915">
+      <c r="F183" t="s" s="1097">
         <v>9</v>
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="s" s="916">
+      <c r="A184" s="1098">
+        <v>183</v>
+      </c>
+      <c r="B184" t="s" s="1099">
         <v>377</v>
       </c>
-      <c r="B184" t="s" s="917">
+      <c r="C184" t="s" s="1100">
         <v>378</v>
       </c>
-      <c r="C184" t="s" s="918">
+      <c r="D184" t="s" s="1101">
         <v>7</v>
       </c>
-      <c r="D184" t="s" s="919">
+      <c r="E184" t="s" s="1102">
         <v>8</v>
       </c>
-      <c r="E184" t="s" s="920">
+      <c r="F184" t="s" s="1103">
         <v>9</v>
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="s" s="921">
+      <c r="A185" s="1104">
+        <v>184</v>
+      </c>
+      <c r="B185" t="s" s="1105">
         <v>379</v>
       </c>
-      <c r="B185" t="s" s="922">
+      <c r="C185" t="s" s="1106">
         <v>380</v>
       </c>
-      <c r="C185" t="s" s="923">
+      <c r="D185" t="s" s="1107">
         <v>7</v>
       </c>
-      <c r="D185" t="s" s="924">
+      <c r="E185" t="s" s="1108">
         <v>8</v>
       </c>
-      <c r="E185" t="s" s="925">
+      <c r="F185" t="s" s="1109">
         <v>9</v>
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="s" s="926">
+      <c r="B186" t="s" s="1110">
+        <v>9</v>
+      </c>
+      <c r="C186" t="s" s="1111">
         <v>381</v>
       </c>
-      <c r="B186" t="s" s="927">
+      <c r="D186" t="s" s="1112">
         <v>9</v>
       </c>
-      <c r="C186" t="s" s="928">
+      <c r="E186" t="s" s="1113">
         <v>9</v>
       </c>
-      <c r="D186" t="s" s="929">
+      <c r="F186" t="s" s="1114">
         <v>382</v>
-      </c>
-      <c r="E186" t="s" s="930">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
